--- a/raw_data/umd/2023/RL_2023-07-24_MB5c.xlsx
+++ b/raw_data/umd/2023/RL_2023-07-24_MB5c.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/07_24_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8697A872-419D-F14B-9299-12E4D26578B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA84E61-688D-7849-BDEB-085A832DC80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{5F49DA69-7E8C-E146-B074-C365A7A2CE2B}"/>
   </bookViews>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = MB5c</t>
-  </si>
-  <si>
-    <t>Location ID = 6623d653-7143-4cf7-950e-52ff73765a21</t>
-  </si>
-  <si>
-    <t>Latitude = 46.90971667 °</t>
-  </si>
-  <si>
-    <t>Longitude = -91.07695 °</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-07-24 11:33:46</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:01:19</t>
-  </si>
-  <si>
-    <t>Readings = 80</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -126,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -633,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1011,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD161820-9D29-8E44-9C24-70423553A72D}">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1037,202 +994,1241 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45131.481782407405</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9.1570490000000007</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8.9034220000000008</v>
+      </c>
+      <c r="D2" s="3">
+        <v>91.931399999999996</v>
+      </c>
+      <c r="E2" s="3">
+        <v>102.2071</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.7860420000000001E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99829670000000004</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6.6434610000000005E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.93044939999999998</v>
+      </c>
+      <c r="J2" s="3">
+        <v>19.724969999999999</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.1433043</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.95914410000000005</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.1015504</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.51326989999999995</v>
+      </c>
+      <c r="O2" s="3">
+        <v>996.40350000000001</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45131.481793981482</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9.1461140000000007</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8.8947760000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>93.421030000000002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>103.86020000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.866173E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99829659999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6.7509120000000006E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.93366280000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>19.727810000000002</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.14416570000000001</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.96120879999999997</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.10196620000000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.51309899999999997</v>
+      </c>
+      <c r="O3" s="3">
+        <v>996.40480000000002</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45131.481805555559</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.1351790000000008</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8.8861299999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>94.910659999999993</v>
+      </c>
+      <c r="E4" s="3">
+        <v>105.5133</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.946304E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99829650000000003</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.8583640000000001E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.93687620000000005</v>
+      </c>
+      <c r="J4" s="3">
+        <v>19.730650000000001</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.14502699999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.96327359999999995</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.1023819</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.51292789999999999</v>
+      </c>
+      <c r="O4" s="3">
+        <v>996.40620000000001</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45131.481817129628</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.2199899999999992</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.8834959999999992</v>
+      </c>
+      <c r="D5" s="3">
+        <v>94.302750000000003</v>
+      </c>
+      <c r="E5" s="3">
+        <v>104.804</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.9119349999999999E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99829429999999997</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.8122630000000003E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.98067340000000003</v>
+      </c>
+      <c r="J5" s="3">
+        <v>19.75291</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.11450639999999999</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.89290519999999995</v>
+      </c>
+      <c r="M5" s="3">
+        <v>8.0751610000000001E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.4744333</v>
+      </c>
+      <c r="O5" s="3">
+        <v>996.42489999999998</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45131.481828703705</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.2222770000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8.8835080000000008</v>
+      </c>
+      <c r="D6" s="3">
+        <v>94.303730000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>104.80200000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.9118349999999998E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99829409999999996</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.8121280000000006E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.98445050000000001</v>
+      </c>
+      <c r="J6" s="3">
+        <v>19.754570000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.11324480000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.89002689999999995</v>
+      </c>
+      <c r="M6" s="3">
+        <v>7.9722340000000003E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.47243410000000002</v>
+      </c>
+      <c r="O6" s="3">
+        <v>996.42690000000005</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45131.481840277775</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.2245650000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.8835200000000007</v>
+      </c>
+      <c r="D7" s="3">
+        <v>94.304730000000006</v>
+      </c>
+      <c r="E7" s="3">
+        <v>104.79989999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.9117359999999999E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99829380000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.8119940000000004E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.98822750000000004</v>
+      </c>
+      <c r="J7" s="3">
+        <v>19.756239999999998</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.11198329999999999</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.88714870000000001</v>
+      </c>
+      <c r="M7" s="3">
+        <v>7.8693070000000004E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.47043489999999999</v>
+      </c>
+      <c r="O7" s="3">
+        <v>996.4289</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45131.481851851851</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.1381999999999994</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8.8826059999999991</v>
+      </c>
+      <c r="D8" s="3">
+        <v>94.30659</v>
+      </c>
+      <c r="E8" s="3">
+        <v>104.78530000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.9110330000000001E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99829239999999997</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.8110439999999994E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.84867689999999996</v>
+      </c>
+      <c r="J8" s="3">
+        <v>19.760069999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.30020459999999999</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.320838</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.2110649</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.46961350000000002</v>
+      </c>
+      <c r="O8" s="3">
+        <v>996.36950000000002</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45131.481863425928</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.1354419999999994</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.8824170000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>94.307100000000005</v>
+      </c>
+      <c r="E9" s="3">
+        <v>104.7843</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.9109849999999997E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99829230000000002</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6.8109799999999998E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.84232430000000003</v>
+      </c>
+      <c r="J9" s="3">
+        <v>19.760750000000002</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.30936459999999999</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.3419430000000001</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.2175049</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.46875670000000003</v>
+      </c>
+      <c r="O9" s="3">
+        <v>996.36680000000001</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45131.481874999998</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9.1326839999999994</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.8822290000000006</v>
+      </c>
+      <c r="D10" s="3">
+        <v>94.30762</v>
+      </c>
+      <c r="E10" s="3">
+        <v>104.7833</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.9109369999999999E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99829230000000002</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.8109149999999993E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.83597180000000004</v>
+      </c>
+      <c r="J10" s="3">
+        <v>19.761430000000001</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.31852449999999999</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.363048</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.22394510000000001</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.46789989999999998</v>
+      </c>
+      <c r="O10" s="3">
+        <v>996.36410000000001</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45131.481886574074</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.2121700000000004</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.9072969999999998</v>
+      </c>
+      <c r="D11" s="3">
+        <v>94.263909999999996</v>
+      </c>
+      <c r="E11" s="3">
+        <v>104.7298</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.9083460000000002E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99829159999999995</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.807436E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.87184819999999996</v>
+      </c>
+      <c r="J11" s="3">
+        <v>19.76435</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.45550980000000002</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.674153</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.32025530000000002</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.46035959999999998</v>
+      </c>
+      <c r="O11" s="3">
+        <v>996.3623</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45131.481898148151</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9.2145869999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8.9086219999999994</v>
+      </c>
+      <c r="D12" s="3">
+        <v>94.261600000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>104.7266</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.9081930000000003E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99829159999999995</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.8072300000000002E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.87086419999999998</v>
+      </c>
+      <c r="J12" s="3">
+        <v>19.764589999999998</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.46674949999999998</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.6998089999999999</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.32815749999999999</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.45995130000000001</v>
+      </c>
+      <c r="O12" s="3">
+        <v>996.36099999999999</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45131.481909722221</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.2170050000000003</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8.9099470000000007</v>
+      </c>
+      <c r="D13" s="3">
+        <v>94.259299999999996</v>
+      </c>
+      <c r="E13" s="3">
+        <v>104.7234</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.9080400000000003E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.9982915</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6.8070240000000004E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.86987999999999999</v>
+      </c>
+      <c r="J13" s="3">
+        <v>19.76482</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.4779892</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.725465</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.33605980000000002</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.45954299999999998</v>
+      </c>
+      <c r="O13" s="3">
+        <v>996.35969999999998</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45131.481921296298</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9.1475220000000004</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8.9712010000000006</v>
+      </c>
+      <c r="D14" s="3">
+        <v>94.154719999999998</v>
+      </c>
+      <c r="E14" s="3">
+        <v>104.6194</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.9029919999999998E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99829630000000003</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.7990270000000005E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.87015770000000003</v>
+      </c>
+      <c r="J14" s="3">
+        <v>19.762409999999999</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.3741399999999999</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3.7958249999999998</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.96611670000000005</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.46694540000000001</v>
+      </c>
+      <c r="O14" s="3">
+        <v>996.36810000000003</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45131.481932870367</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9.1455590000000004</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8.975028</v>
+      </c>
+      <c r="D15" s="3">
+        <v>94.148160000000004</v>
+      </c>
+      <c r="E15" s="3">
+        <v>104.6127</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.9026649999999998E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99829659999999998</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.7985240000000002E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.87103240000000004</v>
+      </c>
+      <c r="J15" s="3">
+        <v>19.762350000000001</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.425068</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3.913367</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.001922</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.4671787</v>
+      </c>
+      <c r="O15" s="3">
+        <v>996.36850000000004</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45131.481944444444</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9.1435969999999998</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8.9788540000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>94.14161</v>
+      </c>
+      <c r="E16" s="3">
+        <v>104.60599999999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.902339E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99829679999999998</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.7980200000000005E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.87190710000000005</v>
+      </c>
+      <c r="J16" s="3">
+        <v>19.762280000000001</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.4759960000000001</v>
+      </c>
+      <c r="L16" s="3">
+        <v>4.0309100000000004</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.037728</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.46741189999999999</v>
+      </c>
+      <c r="O16" s="3">
+        <v>996.36900000000003</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45131.481956018521</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.1416339999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8.9826800000000002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>94.135059999999996</v>
+      </c>
+      <c r="E17" s="3">
+        <v>104.5993</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.9020130000000002E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99829699999999999</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.7975160000000007E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.87278180000000005</v>
+      </c>
+      <c r="J17" s="3">
+        <v>19.76221</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.526923</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4.1484519999999998</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.073534</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.46764509999999998</v>
+      </c>
+      <c r="O17" s="3">
+        <v>996.36940000000004</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="4">
+        <v>45131.48196759259</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9.3101249999999993</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9.1145449999999997</v>
+      </c>
+      <c r="D18" s="3">
+        <v>93.608670000000004</v>
+      </c>
+      <c r="E18" s="3">
+        <v>104.17659999999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.88146E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99830790000000003</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.7713389999999998E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.8451805</v>
+      </c>
+      <c r="J18" s="3">
+        <v>19.742709999999999</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2.3711220000000002</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6.0946150000000001</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1.667065</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.4598699</v>
+      </c>
+      <c r="O18" s="3">
+        <v>996.36069999999995</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="4">
+        <v>45131.481979166667</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9.3171250000000008</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9.1226730000000007</v>
+      </c>
+      <c r="D19" s="3">
+        <v>93.579499999999996</v>
+      </c>
+      <c r="E19" s="3">
+        <v>104.1527</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.8802980000000003E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99830850000000004</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6.7698220000000003E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.84380920000000004</v>
+      </c>
+      <c r="J19" s="3">
+        <v>19.74166</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2.4347910000000001</v>
+      </c>
+      <c r="L19" s="3">
+        <v>6.241492</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1.7118279999999999</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.45964149999999998</v>
+      </c>
+      <c r="O19" s="3">
+        <v>996.36040000000003</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4">
+        <v>45131.481990740744</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9.3241250000000004</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.1308000000000007</v>
+      </c>
+      <c r="D20" s="3">
+        <v>93.550319999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>104.1288</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.8791359999999999E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99830920000000001</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.7683060000000003E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.84243809999999997</v>
+      </c>
+      <c r="J20" s="3">
+        <v>19.74062</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2.4984600000000001</v>
+      </c>
+      <c r="L20" s="3">
+        <v>6.3883700000000001</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1.7565919999999999</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.45941310000000002</v>
+      </c>
+      <c r="O20" s="3">
+        <v>996.36009999999999</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4">
+        <v>45131.482002314813</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9.0053160000000005</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9.1082400000000003</v>
+      </c>
+      <c r="D21" s="3">
+        <v>93.169070000000005</v>
+      </c>
+      <c r="E21" s="3">
+        <v>103.9345</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.8696209999999997E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.99834690000000004</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6.7575339999999998E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.89812479999999995</v>
+      </c>
+      <c r="J21" s="3">
+        <v>19.583189999999998</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3.6323460000000001</v>
+      </c>
+      <c r="L21" s="3">
+        <v>9.0022350000000007</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2.5537930000000002</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.45136850000000001</v>
+      </c>
+      <c r="O21" s="3">
+        <v>996.35119999999995</v>
+      </c>
+      <c r="P21" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="4">
+        <v>45131.48201388889</v>
+      </c>
+      <c r="B22" s="3">
+        <v>8.9927589999999995</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9.1100259999999995</v>
+      </c>
+      <c r="D22" s="3">
+        <v>93.138239999999996</v>
+      </c>
+      <c r="E22" s="3">
+        <v>103.91540000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.8686880000000002E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.99834900000000004</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6.7564120000000005E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.90037109999999998</v>
+      </c>
+      <c r="J22" s="3">
+        <v>19.57479</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3.7091229999999999</v>
+      </c>
+      <c r="L22" s="3">
+        <v>9.1792309999999997</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2.6077729999999999</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.45079750000000002</v>
+      </c>
+      <c r="O22" s="3">
+        <v>996.35059999999999</v>
+      </c>
+      <c r="P22" s="3">
+        <v>46.910198870000002</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-91.052697240000001</v>
+      </c>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45131.481782407405</v>
+        <v>45131.482025462959</v>
       </c>
       <c r="B23" s="3">
-        <v>9.1570490000000007</v>
+        <v>8.9802009999999992</v>
       </c>
       <c r="C23" s="3">
-        <v>8.9034220000000008</v>
+        <v>9.1118129999999997</v>
       </c>
       <c r="D23" s="3">
-        <v>91.931399999999996</v>
+        <v>93.107410000000002</v>
       </c>
       <c r="E23" s="3">
-        <v>102.2071</v>
+        <v>103.8963</v>
       </c>
       <c r="F23" s="3">
-        <v>4.7860420000000001E-2</v>
+        <v>4.867755E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99829670000000004</v>
+        <v>0.99835119999999999</v>
       </c>
       <c r="H23" s="3">
-        <v>6.6434610000000005E-2</v>
+        <v>6.7552899999999999E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>0.93044939999999998</v>
+        <v>0.90261729999999996</v>
       </c>
       <c r="J23" s="3">
-        <v>19.724969999999999</v>
+        <v>19.566379999999999</v>
       </c>
       <c r="K23" s="3">
-        <v>0.1433043</v>
+        <v>3.7858999999999998</v>
       </c>
       <c r="L23" s="3">
-        <v>0.95914410000000005</v>
+        <v>9.3562239999999992</v>
       </c>
       <c r="M23" s="3">
-        <v>0.1015504</v>
+        <v>2.661753</v>
       </c>
       <c r="N23" s="3">
-        <v>0.51326989999999995</v>
+        <v>0.45022649999999997</v>
       </c>
       <c r="O23" s="3">
-        <v>996.40350000000001</v>
+        <v>996.34990000000005</v>
       </c>
       <c r="P23" s="3">
         <v>46.910198870000002</v>
@@ -1244,49 +2240,49 @@
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45131.481793981482</v>
+        <v>45131.482037037036</v>
       </c>
       <c r="B24" s="3">
-        <v>9.1461140000000007</v>
+        <v>9.2359819999999999</v>
       </c>
       <c r="C24" s="3">
-        <v>8.8947760000000002</v>
+        <v>9.0192169999999994</v>
       </c>
       <c r="D24" s="3">
-        <v>93.421030000000002</v>
+        <v>92.882239999999996</v>
       </c>
       <c r="E24" s="3">
-        <v>103.86020000000001</v>
+        <v>103.904</v>
       </c>
       <c r="F24" s="3">
-        <v>4.866173E-2</v>
+        <v>4.8680099999999997E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99829659999999998</v>
+        <v>0.99835830000000003</v>
       </c>
       <c r="H24" s="3">
-        <v>6.7509120000000006E-2</v>
+        <v>6.7539849999999998E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>0.93366280000000001</v>
+        <v>0.9466637</v>
       </c>
       <c r="J24" s="3">
-        <v>19.727810000000002</v>
+        <v>19.482659999999999</v>
       </c>
       <c r="K24" s="3">
-        <v>0.14416570000000001</v>
+        <v>4.4898490000000004</v>
       </c>
       <c r="L24" s="3">
-        <v>0.96120879999999997</v>
+        <v>10.982010000000001</v>
       </c>
       <c r="M24" s="3">
-        <v>0.10196620000000001</v>
+        <v>3.1566779999999999</v>
       </c>
       <c r="N24" s="3">
-        <v>0.51309899999999997</v>
+        <v>0.4269751</v>
       </c>
       <c r="O24" s="3">
-        <v>996.40480000000002</v>
+        <v>996.33270000000005</v>
       </c>
       <c r="P24" s="3">
         <v>46.910198870000002</v>
@@ -1298,49 +2294,49 @@
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45131.481805555559</v>
+        <v>45131.482048611113</v>
       </c>
       <c r="B25" s="3">
-        <v>9.1351790000000008</v>
+        <v>9.2423029999999997</v>
       </c>
       <c r="C25" s="3">
-        <v>8.8861299999999996</v>
+        <v>9.0141559999999998</v>
       </c>
       <c r="D25" s="3">
-        <v>94.910659999999993</v>
+        <v>92.862300000000005</v>
       </c>
       <c r="E25" s="3">
-        <v>105.5133</v>
+        <v>103.8999</v>
       </c>
       <c r="F25" s="3">
-        <v>4.946304E-2</v>
+        <v>4.867805E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99829650000000003</v>
+        <v>0.99835949999999996</v>
       </c>
       <c r="H25" s="3">
-        <v>6.8583640000000001E-2</v>
+        <v>6.7536680000000002E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>0.93687620000000005</v>
+        <v>0.95006190000000001</v>
       </c>
       <c r="J25" s="3">
-        <v>19.730650000000001</v>
+        <v>19.475059999999999</v>
       </c>
       <c r="K25" s="3">
-        <v>0.14502699999999999</v>
+        <v>4.5506380000000002</v>
       </c>
       <c r="L25" s="3">
-        <v>0.96327359999999995</v>
+        <v>11.122299999999999</v>
       </c>
       <c r="M25" s="3">
-        <v>0.1023819</v>
+        <v>3.199417</v>
       </c>
       <c r="N25" s="3">
-        <v>0.51292789999999999</v>
+        <v>0.42562149999999999</v>
       </c>
       <c r="O25" s="3">
-        <v>996.40620000000001</v>
+        <v>996.33159999999998</v>
       </c>
       <c r="P25" s="3">
         <v>46.910198870000002</v>
@@ -1352,49 +2348,49 @@
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45131.481817129628</v>
+        <v>45131.482060185182</v>
       </c>
       <c r="B26" s="3">
-        <v>9.2199899999999992</v>
+        <v>9.2486239999999995</v>
       </c>
       <c r="C26" s="3">
-        <v>8.8834959999999992</v>
+        <v>9.0090959999999995</v>
       </c>
       <c r="D26" s="3">
-        <v>94.302750000000003</v>
+        <v>92.842370000000003</v>
       </c>
       <c r="E26" s="3">
-        <v>104.804</v>
+        <v>103.89579999999999</v>
       </c>
       <c r="F26" s="3">
-        <v>4.9119349999999999E-2</v>
+        <v>4.8675990000000002E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99829429999999997</v>
+        <v>0.99836060000000004</v>
       </c>
       <c r="H26" s="3">
-        <v>6.8122630000000003E-2</v>
+        <v>6.753352E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>0.98067340000000003</v>
+        <v>0.95346019999999998</v>
       </c>
       <c r="J26" s="3">
-        <v>19.75291</v>
+        <v>19.467449999999999</v>
       </c>
       <c r="K26" s="3">
-        <v>0.11450639999999999</v>
+        <v>4.6114269999999999</v>
       </c>
       <c r="L26" s="3">
-        <v>0.89290519999999995</v>
+        <v>11.262589999999999</v>
       </c>
       <c r="M26" s="3">
-        <v>8.0751610000000001E-2</v>
+        <v>3.242156</v>
       </c>
       <c r="N26" s="3">
-        <v>0.4744333</v>
+        <v>0.42426799999999998</v>
       </c>
       <c r="O26" s="3">
-        <v>996.42489999999998</v>
+        <v>996.3306</v>
       </c>
       <c r="P26" s="3">
         <v>46.910198870000002</v>
@@ -1406,49 +2402,49 @@
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45131.481828703705</v>
+        <v>45131.482071759259</v>
       </c>
       <c r="B27" s="3">
-        <v>9.2222770000000001</v>
+        <v>9.1245390000000004</v>
       </c>
       <c r="C27" s="3">
-        <v>8.8835080000000008</v>
+        <v>8.8436780000000006</v>
       </c>
       <c r="D27" s="3">
-        <v>94.303730000000002</v>
+        <v>92.641139999999993</v>
       </c>
       <c r="E27" s="3">
-        <v>104.80200000000001</v>
+        <v>103.82980000000001</v>
       </c>
       <c r="F27" s="3">
-        <v>4.9118349999999998E-2</v>
+        <v>4.8643199999999998E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99829409999999996</v>
+        <v>0.9983746</v>
       </c>
       <c r="H27" s="3">
-        <v>6.8121280000000006E-2</v>
+        <v>6.7486669999999999E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>0.98445050000000001</v>
+        <v>0.84891289999999997</v>
       </c>
       <c r="J27" s="3">
-        <v>19.754570000000001</v>
+        <v>19.362629999999999</v>
       </c>
       <c r="K27" s="3">
-        <v>0.11324480000000001</v>
+        <v>5.6658939999999998</v>
       </c>
       <c r="L27" s="3">
-        <v>0.89002689999999995</v>
+        <v>13.694509999999999</v>
       </c>
       <c r="M27" s="3">
-        <v>7.9722340000000003E-2</v>
+        <v>3.9835199999999999</v>
       </c>
       <c r="N27" s="3">
-        <v>0.47243410000000002</v>
+        <v>0.41623379999999999</v>
       </c>
       <c r="O27" s="3">
-        <v>996.42690000000005</v>
+        <v>996.34739999999999</v>
       </c>
       <c r="P27" s="3">
         <v>46.910198870000002</v>
@@ -1460,49 +2456,49 @@
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45131.481840277775</v>
+        <v>45131.482083333336</v>
       </c>
       <c r="B28" s="3">
-        <v>9.2245650000000001</v>
+        <v>9.1234719999999996</v>
       </c>
       <c r="C28" s="3">
-        <v>8.8835200000000007</v>
+        <v>8.8333049999999993</v>
       </c>
       <c r="D28" s="3">
-        <v>94.304730000000006</v>
+        <v>92.625870000000006</v>
       </c>
       <c r="E28" s="3">
-        <v>104.79989999999999</v>
+        <v>103.82640000000001</v>
       </c>
       <c r="F28" s="3">
-        <v>4.9117359999999999E-2</v>
+        <v>4.8641480000000001E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99829380000000001</v>
+        <v>0.99837540000000002</v>
       </c>
       <c r="H28" s="3">
-        <v>6.8119940000000004E-2</v>
+        <v>6.7483890000000005E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>0.98822750000000004</v>
+        <v>0.84447709999999998</v>
       </c>
       <c r="J28" s="3">
-        <v>19.756239999999998</v>
+        <v>19.355460000000001</v>
       </c>
       <c r="K28" s="3">
-        <v>0.11198329999999999</v>
+        <v>5.7352049999999997</v>
       </c>
       <c r="L28" s="3">
-        <v>0.88714870000000001</v>
+        <v>13.85441</v>
       </c>
       <c r="M28" s="3">
-        <v>7.8693070000000004E-2</v>
+        <v>4.0322500000000003</v>
       </c>
       <c r="N28" s="3">
-        <v>0.47043489999999999</v>
+        <v>0.4153328</v>
       </c>
       <c r="O28" s="3">
-        <v>996.4289</v>
+        <v>996.34789999999998</v>
       </c>
       <c r="P28" s="3">
         <v>46.910198870000002</v>
@@ -1514,49 +2510,49 @@
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45131.481851851851</v>
+        <v>45131.482094907406</v>
       </c>
       <c r="B29" s="3">
-        <v>9.1381999999999994</v>
+        <v>9.1224059999999998</v>
       </c>
       <c r="C29" s="3">
-        <v>8.8826059999999991</v>
+        <v>8.8229310000000005</v>
       </c>
       <c r="D29" s="3">
-        <v>94.30659</v>
+        <v>92.610590000000002</v>
       </c>
       <c r="E29" s="3">
-        <v>104.78530000000001</v>
+        <v>103.82299999999999</v>
       </c>
       <c r="F29" s="3">
-        <v>4.9110330000000001E-2</v>
+        <v>4.8639759999999997E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99829239999999997</v>
+        <v>0.99837629999999999</v>
       </c>
       <c r="H29" s="3">
-        <v>6.8110439999999994E-2</v>
+        <v>6.7481109999999997E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>0.84867689999999996</v>
+        <v>0.84004120000000004</v>
       </c>
       <c r="J29" s="3">
-        <v>19.760069999999999</v>
+        <v>19.348289999999999</v>
       </c>
       <c r="K29" s="3">
-        <v>0.30020459999999999</v>
+        <v>5.8045159999999996</v>
       </c>
       <c r="L29" s="3">
-        <v>1.320838</v>
+        <v>14.01431</v>
       </c>
       <c r="M29" s="3">
-        <v>0.2110649</v>
+        <v>4.0809810000000004</v>
       </c>
       <c r="N29" s="3">
-        <v>0.46961350000000002</v>
+        <v>0.41443180000000002</v>
       </c>
       <c r="O29" s="3">
-        <v>996.36950000000002</v>
+        <v>996.34839999999997</v>
       </c>
       <c r="P29" s="3">
         <v>46.910198870000002</v>
@@ -1568,49 +2564,49 @@
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45131.481863425928</v>
+        <v>45131.482106481482</v>
       </c>
       <c r="B30" s="3">
-        <v>9.1354419999999994</v>
+        <v>9.0435300000000005</v>
       </c>
       <c r="C30" s="3">
-        <v>8.8824170000000002</v>
+        <v>8.8545909999999992</v>
       </c>
       <c r="D30" s="3">
-        <v>94.307100000000005</v>
+        <v>92.424300000000002</v>
       </c>
       <c r="E30" s="3">
-        <v>104.7843</v>
+        <v>103.7717</v>
       </c>
       <c r="F30" s="3">
-        <v>4.9109849999999997E-2</v>
+        <v>4.8614110000000002E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99829230000000002</v>
+        <v>0.99839040000000001</v>
       </c>
       <c r="H30" s="3">
-        <v>6.8109799999999998E-2</v>
+        <v>6.7451109999999995E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>0.84232430000000003</v>
+        <v>0.88894490000000004</v>
       </c>
       <c r="J30" s="3">
-        <v>19.760750000000002</v>
+        <v>19.320889999999999</v>
       </c>
       <c r="K30" s="3">
-        <v>0.30936459999999999</v>
+        <v>6.6964860000000002</v>
       </c>
       <c r="L30" s="3">
-        <v>1.3419430000000001</v>
+        <v>16.070129999999999</v>
       </c>
       <c r="M30" s="3">
-        <v>0.2175049</v>
+        <v>4.7080979999999997</v>
       </c>
       <c r="N30" s="3">
-        <v>0.46875670000000003</v>
+        <v>0.4219522</v>
       </c>
       <c r="O30" s="3">
-        <v>996.36680000000001</v>
+        <v>996.34889999999996</v>
       </c>
       <c r="P30" s="3">
         <v>46.910198870000002</v>
@@ -1622,49 +2618,49 @@
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45131.481874999998</v>
+        <v>45131.482118055559</v>
       </c>
       <c r="B31" s="3">
-        <v>9.1326839999999994</v>
+        <v>9.0367619999999995</v>
       </c>
       <c r="C31" s="3">
-        <v>8.8822290000000006</v>
+        <v>8.8528210000000005</v>
       </c>
       <c r="D31" s="3">
-        <v>94.30762</v>
+        <v>92.410430000000005</v>
       </c>
       <c r="E31" s="3">
-        <v>104.7833</v>
+        <v>103.7676</v>
       </c>
       <c r="F31" s="3">
-        <v>4.9109369999999999E-2</v>
+        <v>4.8612080000000002E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99829230000000002</v>
+        <v>0.99839140000000004</v>
       </c>
       <c r="H31" s="3">
-        <v>6.8109149999999993E-2</v>
+        <v>6.7448569999999999E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>0.83597180000000004</v>
+        <v>0.88932259999999996</v>
       </c>
       <c r="J31" s="3">
-        <v>19.761430000000001</v>
+        <v>19.31728</v>
       </c>
       <c r="K31" s="3">
-        <v>0.31852449999999999</v>
+        <v>6.7647060000000003</v>
       </c>
       <c r="L31" s="3">
-        <v>1.363048</v>
+        <v>16.22739</v>
       </c>
       <c r="M31" s="3">
-        <v>0.22394510000000001</v>
+        <v>4.756062</v>
       </c>
       <c r="N31" s="3">
-        <v>0.46789989999999998</v>
+        <v>0.42217840000000001</v>
       </c>
       <c r="O31" s="3">
-        <v>996.36410000000001</v>
+        <v>996.34929999999997</v>
       </c>
       <c r="P31" s="3">
         <v>46.910198870000002</v>
@@ -1676,49 +2672,49 @@
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45131.481886574074</v>
+        <v>45131.482129629629</v>
       </c>
       <c r="B32" s="3">
-        <v>9.2121700000000004</v>
+        <v>9.0299940000000003</v>
       </c>
       <c r="C32" s="3">
-        <v>8.9072969999999998</v>
+        <v>8.851051</v>
       </c>
       <c r="D32" s="3">
-        <v>94.263909999999996</v>
+        <v>92.396559999999994</v>
       </c>
       <c r="E32" s="3">
-        <v>104.7298</v>
+        <v>103.76349999999999</v>
       </c>
       <c r="F32" s="3">
-        <v>4.9083460000000002E-2</v>
+        <v>4.8610050000000002E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99829159999999995</v>
+        <v>0.99839250000000002</v>
       </c>
       <c r="H32" s="3">
-        <v>6.807436E-2</v>
+        <v>6.7446019999999995E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>0.87184819999999996</v>
+        <v>0.88970020000000005</v>
       </c>
       <c r="J32" s="3">
-        <v>19.76435</v>
+        <v>19.313669999999998</v>
       </c>
       <c r="K32" s="3">
-        <v>0.45550980000000002</v>
+        <v>6.8329259999999996</v>
       </c>
       <c r="L32" s="3">
-        <v>1.674153</v>
+        <v>16.38466</v>
       </c>
       <c r="M32" s="3">
-        <v>0.32025530000000002</v>
+        <v>4.8040250000000002</v>
       </c>
       <c r="N32" s="3">
-        <v>0.46035959999999998</v>
+        <v>0.42240460000000002</v>
       </c>
       <c r="O32" s="3">
-        <v>996.3623</v>
+        <v>996.34969999999998</v>
       </c>
       <c r="P32" s="3">
         <v>46.910198870000002</v>
@@ -1730,49 +2726,49 @@
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45131.481898148151</v>
+        <v>45131.482141203705</v>
       </c>
       <c r="B33" s="3">
-        <v>9.2145869999999999</v>
+        <v>9.1360799999999998</v>
       </c>
       <c r="C33" s="3">
-        <v>8.9086219999999994</v>
+        <v>8.9278359999999992</v>
       </c>
       <c r="D33" s="3">
-        <v>94.261600000000001</v>
+        <v>92.113590000000002</v>
       </c>
       <c r="E33" s="3">
-        <v>104.7266</v>
+        <v>103.54559999999999</v>
       </c>
       <c r="F33" s="3">
-        <v>4.9081930000000003E-2</v>
+        <v>4.8503879999999999E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99829159999999995</v>
+        <v>0.99840130000000005</v>
       </c>
       <c r="H33" s="3">
-        <v>6.8072300000000002E-2</v>
+        <v>6.7304439999999993E-2</v>
       </c>
       <c r="I33" s="3">
-        <v>0.87086419999999998</v>
+        <v>0.95688890000000004</v>
       </c>
       <c r="J33" s="3">
-        <v>19.764589999999998</v>
+        <v>19.225960000000001</v>
       </c>
       <c r="K33" s="3">
-        <v>0.46674949999999998</v>
+        <v>7.658372</v>
       </c>
       <c r="L33" s="3">
-        <v>1.6998089999999999</v>
+        <v>20.30817</v>
       </c>
       <c r="M33" s="3">
-        <v>0.32815749999999999</v>
+        <v>5.9999399999999996</v>
       </c>
       <c r="N33" s="3">
-        <v>0.45995130000000001</v>
+        <v>0.40754410000000002</v>
       </c>
       <c r="O33" s="3">
-        <v>996.36099999999999</v>
+        <v>996.34969999999998</v>
       </c>
       <c r="P33" s="3">
         <v>46.910198870000002</v>
@@ -1784,49 +2780,49 @@
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45131.481909722221</v>
+        <v>45131.482152777775</v>
       </c>
       <c r="B34" s="3">
-        <v>9.2170050000000003</v>
+        <v>9.1401070000000004</v>
       </c>
       <c r="C34" s="3">
-        <v>8.9099470000000007</v>
+        <v>8.9325960000000002</v>
       </c>
       <c r="D34" s="3">
-        <v>94.259299999999996</v>
+        <v>92.094980000000007</v>
       </c>
       <c r="E34" s="3">
-        <v>104.7234</v>
+        <v>103.5331</v>
       </c>
       <c r="F34" s="3">
-        <v>4.9080400000000003E-2</v>
+        <v>4.8497800000000001E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.9982915</v>
+        <v>0.99840209999999996</v>
       </c>
       <c r="H34" s="3">
-        <v>6.8070240000000004E-2</v>
+        <v>6.7296419999999996E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>0.86987999999999999</v>
+        <v>0.96148279999999997</v>
       </c>
       <c r="J34" s="3">
-        <v>19.76482</v>
+        <v>19.220829999999999</v>
       </c>
       <c r="K34" s="3">
-        <v>0.4779892</v>
+        <v>7.7196410000000002</v>
       </c>
       <c r="L34" s="3">
-        <v>1.725465</v>
+        <v>20.555440000000001</v>
       </c>
       <c r="M34" s="3">
-        <v>0.33605980000000002</v>
+        <v>6.0753190000000004</v>
       </c>
       <c r="N34" s="3">
-        <v>0.45954299999999998</v>
+        <v>0.4069217</v>
       </c>
       <c r="O34" s="3">
-        <v>996.35969999999998</v>
+        <v>996.34969999999998</v>
       </c>
       <c r="P34" s="3">
         <v>46.910198870000002</v>
@@ -1838,49 +2834,49 @@
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45131.481921296298</v>
+        <v>45131.482164351852</v>
       </c>
       <c r="B35" s="3">
-        <v>9.1475220000000004</v>
+        <v>9.1441350000000003</v>
       </c>
       <c r="C35" s="3">
-        <v>8.9712010000000006</v>
+        <v>8.9373570000000004</v>
       </c>
       <c r="D35" s="3">
-        <v>94.154719999999998</v>
+        <v>92.076359999999994</v>
       </c>
       <c r="E35" s="3">
-        <v>104.6194</v>
+        <v>103.5206</v>
       </c>
       <c r="F35" s="3">
-        <v>4.9029919999999998E-2</v>
+        <v>4.849171E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99829630000000003</v>
+        <v>0.99840280000000003</v>
       </c>
       <c r="H35" s="3">
-        <v>6.7990270000000005E-2</v>
+        <v>6.7288390000000003E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>0.87015770000000003</v>
+        <v>0.96607670000000001</v>
       </c>
       <c r="J35" s="3">
-        <v>19.762409999999999</v>
+        <v>19.215710000000001</v>
       </c>
       <c r="K35" s="3">
-        <v>1.3741399999999999</v>
+        <v>7.7809090000000003</v>
       </c>
       <c r="L35" s="3">
-        <v>3.7958249999999998</v>
+        <v>20.802710000000001</v>
       </c>
       <c r="M35" s="3">
-        <v>0.96611670000000005</v>
+        <v>6.1506990000000004</v>
       </c>
       <c r="N35" s="3">
-        <v>0.46694540000000001</v>
+        <v>0.40629920000000003</v>
       </c>
       <c r="O35" s="3">
-        <v>996.36810000000003</v>
+        <v>996.34969999999998</v>
       </c>
       <c r="P35" s="3">
         <v>46.910198870000002</v>
@@ -1892,49 +2888,49 @@
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45131.481932870367</v>
+        <v>45131.482175925928</v>
       </c>
       <c r="B36" s="3">
-        <v>9.1455590000000004</v>
+        <v>9.148161</v>
       </c>
       <c r="C36" s="3">
-        <v>8.975028</v>
+        <v>8.9421169999999996</v>
       </c>
       <c r="D36" s="3">
-        <v>94.148160000000004</v>
+        <v>92.057749999999999</v>
       </c>
       <c r="E36" s="3">
-        <v>104.6127</v>
+        <v>103.5082</v>
       </c>
       <c r="F36" s="3">
-        <v>4.9026649999999998E-2</v>
+        <v>4.8485630000000002E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99829659999999998</v>
+        <v>0.9984035</v>
       </c>
       <c r="H36" s="3">
-        <v>6.7985240000000002E-2</v>
+        <v>6.7280370000000006E-2</v>
       </c>
       <c r="I36" s="3">
-        <v>0.87103240000000004</v>
+        <v>0.9706707</v>
       </c>
       <c r="J36" s="3">
-        <v>19.762350000000001</v>
+        <v>19.21059</v>
       </c>
       <c r="K36" s="3">
-        <v>1.425068</v>
+        <v>7.8421779999999996</v>
       </c>
       <c r="L36" s="3">
-        <v>3.913367</v>
+        <v>21.049980000000001</v>
       </c>
       <c r="M36" s="3">
-        <v>1.001922</v>
+        <v>6.2260780000000002</v>
       </c>
       <c r="N36" s="3">
-        <v>0.4671787</v>
+        <v>0.4056768</v>
       </c>
       <c r="O36" s="3">
-        <v>996.36850000000004</v>
+        <v>996.34969999999998</v>
       </c>
       <c r="P36" s="3">
         <v>46.910198870000002</v>
@@ -1946,49 +2942,49 @@
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45131.481944444444</v>
+        <v>45131.482187499998</v>
       </c>
       <c r="B37" s="3">
-        <v>9.1435969999999998</v>
+        <v>9.0666860000000007</v>
       </c>
       <c r="C37" s="3">
-        <v>8.9788540000000001</v>
+        <v>8.9474689999999999</v>
       </c>
       <c r="D37" s="3">
-        <v>94.14161</v>
+        <v>91.20138</v>
       </c>
       <c r="E37" s="3">
-        <v>104.60599999999999</v>
+        <v>102.96339999999999</v>
       </c>
       <c r="F37" s="3">
-        <v>4.902339E-2</v>
+        <v>4.8219270000000002E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99829679999999998</v>
+        <v>0.99844060000000001</v>
       </c>
       <c r="H37" s="3">
-        <v>6.7980200000000005E-2</v>
+        <v>6.6926230000000003E-2</v>
       </c>
       <c r="I37" s="3">
-        <v>0.87190710000000005</v>
+        <v>0.9358978</v>
       </c>
       <c r="J37" s="3">
-        <v>19.762280000000001</v>
+        <v>19.144069999999999</v>
       </c>
       <c r="K37" s="3">
-        <v>1.4759960000000001</v>
+        <v>9.7047729999999994</v>
       </c>
       <c r="L37" s="3">
-        <v>4.0309100000000004</v>
+        <v>23.246189999999999</v>
       </c>
       <c r="M37" s="3">
-        <v>1.037728</v>
+        <v>6.8943399999999997</v>
       </c>
       <c r="N37" s="3">
-        <v>0.46741189999999999</v>
+        <v>0.4133482</v>
       </c>
       <c r="O37" s="3">
-        <v>996.36900000000003</v>
+        <v>996.39359999999999</v>
       </c>
       <c r="P37" s="3">
         <v>46.910198870000002</v>
@@ -2000,49 +2996,49 @@
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45131.481956018521</v>
+        <v>45131.482199074075</v>
       </c>
       <c r="B38" s="3">
-        <v>9.1416339999999998</v>
+        <v>9.0648820000000008</v>
       </c>
       <c r="C38" s="3">
-        <v>8.9826800000000002</v>
+        <v>8.9494530000000001</v>
       </c>
       <c r="D38" s="3">
-        <v>94.135059999999996</v>
+        <v>91.151589999999999</v>
       </c>
       <c r="E38" s="3">
-        <v>104.5993</v>
+        <v>102.93089999999999</v>
       </c>
       <c r="F38" s="3">
-        <v>4.9020130000000002E-2</v>
+        <v>4.8203389999999999E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>0.99829699999999999</v>
+        <v>0.99844259999999996</v>
       </c>
       <c r="H38" s="3">
-        <v>6.7975160000000007E-2</v>
+        <v>6.6905110000000004E-2</v>
       </c>
       <c r="I38" s="3">
-        <v>0.87278180000000005</v>
+        <v>0.93563640000000003</v>
       </c>
       <c r="J38" s="3">
-        <v>19.76221</v>
+        <v>19.138739999999999</v>
       </c>
       <c r="K38" s="3">
-        <v>1.526923</v>
+        <v>9.8178509999999992</v>
       </c>
       <c r="L38" s="3">
-        <v>4.1484519999999998</v>
+        <v>23.44519</v>
       </c>
       <c r="M38" s="3">
-        <v>1.073534</v>
+        <v>6.9549370000000001</v>
       </c>
       <c r="N38" s="3">
-        <v>0.46764509999999998</v>
+        <v>0.41341020000000001</v>
       </c>
       <c r="O38" s="3">
-        <v>996.36940000000004</v>
+        <v>996.39589999999998</v>
       </c>
       <c r="P38" s="3">
         <v>46.910198870000002</v>
@@ -2054,49 +3050,49 @@
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45131.48196759259</v>
+        <v>45131.482210648152</v>
       </c>
       <c r="B39" s="3">
-        <v>9.3101249999999993</v>
+        <v>9.0630780000000009</v>
       </c>
       <c r="C39" s="3">
-        <v>9.1145449999999997</v>
+        <v>8.9514370000000003</v>
       </c>
       <c r="D39" s="3">
-        <v>93.608670000000004</v>
+        <v>91.101789999999994</v>
       </c>
       <c r="E39" s="3">
-        <v>104.17659999999999</v>
+        <v>102.8984</v>
       </c>
       <c r="F39" s="3">
-        <v>4.88146E-2</v>
+        <v>4.8187510000000003E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99830790000000003</v>
+        <v>0.99844469999999996</v>
       </c>
       <c r="H39" s="3">
-        <v>6.7713389999999998E-2</v>
+        <v>6.6883990000000004E-2</v>
       </c>
       <c r="I39" s="3">
-        <v>0.8451805</v>
+        <v>0.93537499999999996</v>
       </c>
       <c r="J39" s="3">
-        <v>19.742709999999999</v>
+        <v>19.133420000000001</v>
       </c>
       <c r="K39" s="3">
-        <v>2.3711220000000002</v>
+        <v>9.93093</v>
       </c>
       <c r="L39" s="3">
-        <v>6.0946150000000001</v>
+        <v>23.644189999999998</v>
       </c>
       <c r="M39" s="3">
-        <v>1.667065</v>
+        <v>7.0155349999999999</v>
       </c>
       <c r="N39" s="3">
-        <v>0.4598699</v>
+        <v>0.41347230000000001</v>
       </c>
       <c r="O39" s="3">
-        <v>996.36069999999995</v>
+        <v>996.3981</v>
       </c>
       <c r="P39" s="3">
         <v>46.910198870000002</v>
@@ -2108,49 +3104,49 @@
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45131.481979166667</v>
+        <v>45131.482222222221</v>
       </c>
       <c r="B40" s="3">
-        <v>9.3171250000000008</v>
+        <v>9.0305619999999998</v>
       </c>
       <c r="C40" s="3">
-        <v>9.1226730000000007</v>
+        <v>8.9039149999999996</v>
       </c>
       <c r="D40" s="3">
-        <v>93.579499999999996</v>
+        <v>90.299359999999993</v>
       </c>
       <c r="E40" s="3">
-        <v>104.1527</v>
+        <v>102.3081</v>
       </c>
       <c r="F40" s="3">
-        <v>4.8802980000000003E-2</v>
+        <v>4.7899490000000003E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99830850000000004</v>
+        <v>0.99847249999999999</v>
       </c>
       <c r="H40" s="3">
-        <v>6.7698220000000003E-2</v>
+        <v>6.6500290000000004E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>0.84380920000000004</v>
+        <v>0.96516950000000001</v>
       </c>
       <c r="J40" s="3">
-        <v>19.74166</v>
+        <v>18.8688</v>
       </c>
       <c r="K40" s="3">
-        <v>2.4347910000000001</v>
+        <v>10.90114</v>
       </c>
       <c r="L40" s="3">
-        <v>6.241492</v>
+        <v>25.836659999999998</v>
       </c>
       <c r="M40" s="3">
-        <v>1.7118279999999999</v>
+        <v>8.1961980000000008</v>
       </c>
       <c r="N40" s="3">
-        <v>0.45964149999999998</v>
+        <v>0.39808779999999999</v>
       </c>
       <c r="O40" s="3">
-        <v>996.36040000000003</v>
+        <v>996.34609999999998</v>
       </c>
       <c r="P40" s="3">
         <v>46.910198870000002</v>
@@ -2162,49 +3158,49 @@
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45131.481990740744</v>
+        <v>45131.482233796298</v>
       </c>
       <c r="B41" s="3">
-        <v>9.3241250000000004</v>
+        <v>9.0272030000000001</v>
       </c>
       <c r="C41" s="3">
-        <v>9.1308000000000007</v>
+        <v>8.9016719999999996</v>
       </c>
       <c r="D41" s="3">
-        <v>93.550319999999999</v>
+        <v>90.239869999999996</v>
       </c>
       <c r="E41" s="3">
-        <v>104.1288</v>
+        <v>102.2662</v>
       </c>
       <c r="F41" s="3">
-        <v>4.8791359999999999E-2</v>
+        <v>4.7879030000000003E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99830920000000001</v>
+        <v>0.99847470000000005</v>
       </c>
       <c r="H41" s="3">
-        <v>6.7683060000000003E-2</v>
+        <v>6.6473039999999997E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>0.84243809999999997</v>
+        <v>0.96600739999999996</v>
       </c>
       <c r="J41" s="3">
-        <v>19.74062</v>
+        <v>18.853829999999999</v>
       </c>
       <c r="K41" s="3">
-        <v>2.4984600000000001</v>
+        <v>10.991339999999999</v>
       </c>
       <c r="L41" s="3">
-        <v>6.3883700000000001</v>
+        <v>25.99879</v>
       </c>
       <c r="M41" s="3">
-        <v>1.7565919999999999</v>
+        <v>8.271706</v>
       </c>
       <c r="N41" s="3">
-        <v>0.45941310000000002</v>
+        <v>0.39746100000000001</v>
       </c>
       <c r="O41" s="3">
-        <v>996.36009999999999</v>
+        <v>996.34439999999995</v>
       </c>
       <c r="P41" s="3">
         <v>46.910198870000002</v>
@@ -2216,49 +3212,49 @@
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45131.482002314813</v>
+        <v>45131.482245370367</v>
       </c>
       <c r="B42" s="3">
-        <v>9.0053160000000005</v>
+        <v>9.0238440000000004</v>
       </c>
       <c r="C42" s="3">
-        <v>9.1082400000000003</v>
+        <v>8.8994289999999996</v>
       </c>
       <c r="D42" s="3">
-        <v>93.169070000000005</v>
+        <v>90.180369999999996</v>
       </c>
       <c r="E42" s="3">
-        <v>103.9345</v>
+        <v>102.2243</v>
       </c>
       <c r="F42" s="3">
-        <v>4.8696209999999997E-2</v>
+        <v>4.7858570000000003E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99834690000000004</v>
+        <v>0.9984769</v>
       </c>
       <c r="H42" s="3">
-        <v>6.7575339999999998E-2</v>
+        <v>6.6445809999999994E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>0.89812479999999995</v>
+        <v>0.96684519999999996</v>
       </c>
       <c r="J42" s="3">
-        <v>19.583189999999998</v>
+        <v>18.838850000000001</v>
       </c>
       <c r="K42" s="3">
-        <v>3.6323460000000001</v>
+        <v>11.08155</v>
       </c>
       <c r="L42" s="3">
-        <v>9.0022350000000007</v>
+        <v>26.160920000000001</v>
       </c>
       <c r="M42" s="3">
-        <v>2.5537930000000002</v>
+        <v>8.3472139999999992</v>
       </c>
       <c r="N42" s="3">
-        <v>0.45136850000000001</v>
+        <v>0.39683420000000003</v>
       </c>
       <c r="O42" s="3">
-        <v>996.35119999999995</v>
+        <v>996.34270000000004</v>
       </c>
       <c r="P42" s="3">
         <v>46.910198870000002</v>
@@ -2270,49 +3266,49 @@
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45131.48201388889</v>
+        <v>45131.482256944444</v>
       </c>
       <c r="B43" s="3">
-        <v>8.9927589999999995</v>
+        <v>9.0984429999999996</v>
       </c>
       <c r="C43" s="3">
-        <v>9.1100259999999995</v>
+        <v>9.0323209999999996</v>
       </c>
       <c r="D43" s="3">
-        <v>93.138239999999996</v>
+        <v>83.431370000000001</v>
       </c>
       <c r="E43" s="3">
-        <v>103.91540000000001</v>
+        <v>96.343389999999999</v>
       </c>
       <c r="F43" s="3">
-        <v>4.8686880000000002E-2</v>
+        <v>4.4994369999999999E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99834900000000004</v>
+        <v>0.99863619999999997</v>
       </c>
       <c r="H43" s="3">
-        <v>6.7564120000000005E-2</v>
+        <v>6.2623209999999999E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>0.90037109999999998</v>
+        <v>0.99610209999999999</v>
       </c>
       <c r="J43" s="3">
-        <v>19.57479</v>
+        <v>18.552350000000001</v>
       </c>
       <c r="K43" s="3">
-        <v>3.7091229999999999</v>
+        <v>12.58638</v>
       </c>
       <c r="L43" s="3">
-        <v>9.1792309999999997</v>
+        <v>29.657119999999999</v>
       </c>
       <c r="M43" s="3">
-        <v>2.6077729999999999</v>
+        <v>8.9109990000000003</v>
       </c>
       <c r="N43" s="3">
-        <v>0.45079750000000002</v>
+        <v>0.3809536</v>
       </c>
       <c r="O43" s="3">
-        <v>996.35059999999999</v>
+        <v>996.3415</v>
       </c>
       <c r="P43" s="3">
         <v>46.910198870000002</v>
@@ -2324,49 +3320,49 @@
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45131.482025462959</v>
+        <v>45131.482268518521</v>
       </c>
       <c r="B44" s="3">
-        <v>8.9802009999999992</v>
+        <v>9.1015879999999996</v>
       </c>
       <c r="C44" s="3">
-        <v>9.1118129999999997</v>
+        <v>9.0381900000000002</v>
       </c>
       <c r="D44" s="3">
-        <v>93.107410000000002</v>
+        <v>83.066019999999995</v>
       </c>
       <c r="E44" s="3">
-        <v>103.8963</v>
+        <v>96.027469999999994</v>
       </c>
       <c r="F44" s="3">
-        <v>4.867755E-2</v>
+        <v>4.4840499999999998E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99835119999999999</v>
+        <v>0.99864509999999995</v>
       </c>
       <c r="H44" s="3">
-        <v>6.7552899999999999E-2</v>
+        <v>6.2417859999999999E-2</v>
       </c>
       <c r="I44" s="3">
-        <v>0.90261729999999996</v>
+        <v>0.99824409999999997</v>
       </c>
       <c r="J44" s="3">
-        <v>19.566379999999999</v>
+        <v>18.53192</v>
       </c>
       <c r="K44" s="3">
-        <v>3.7858999999999998</v>
+        <v>12.68577</v>
       </c>
       <c r="L44" s="3">
-        <v>9.3562239999999992</v>
+        <v>29.886230000000001</v>
       </c>
       <c r="M44" s="3">
-        <v>2.661753</v>
+        <v>8.9658320000000007</v>
       </c>
       <c r="N44" s="3">
-        <v>0.45022649999999997</v>
+        <v>0.3798086</v>
       </c>
       <c r="O44" s="3">
-        <v>996.34990000000005</v>
+        <v>996.34029999999996</v>
       </c>
       <c r="P44" s="3">
         <v>46.910198870000002</v>
@@ -2378,3135 +3374,2001 @@
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45131.482037037036</v>
+        <v>45131.48228009259</v>
       </c>
       <c r="B45" s="3">
-        <v>9.2359819999999999</v>
+        <v>9.1047329999999995</v>
       </c>
       <c r="C45" s="3">
-        <v>9.0192169999999994</v>
+        <v>9.0440590000000007</v>
       </c>
       <c r="D45" s="3">
-        <v>92.882239999999996</v>
+        <v>82.700689999999994</v>
       </c>
       <c r="E45" s="3">
-        <v>103.904</v>
+        <v>95.711560000000006</v>
       </c>
       <c r="F45" s="3">
-        <v>4.8680099999999997E-2</v>
+        <v>4.4686620000000003E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99835830000000003</v>
+        <v>0.99865389999999998</v>
       </c>
       <c r="H45" s="3">
-        <v>6.7539849999999998E-2</v>
+        <v>6.221252E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>0.9466637</v>
+        <v>1.000386</v>
       </c>
       <c r="J45" s="3">
-        <v>19.482659999999999</v>
+        <v>18.511479999999999</v>
       </c>
       <c r="K45" s="3">
-        <v>4.4898490000000004</v>
+        <v>12.785170000000001</v>
       </c>
       <c r="L45" s="3">
-        <v>10.982010000000001</v>
+        <v>30.115349999999999</v>
       </c>
       <c r="M45" s="3">
-        <v>3.1566779999999999</v>
+        <v>9.0206630000000008</v>
       </c>
       <c r="N45" s="3">
-        <v>0.4269751</v>
+        <v>0.37866359999999999</v>
       </c>
       <c r="O45" s="3">
-        <v>996.33270000000005</v>
+        <v>996.33920000000001</v>
       </c>
       <c r="P45" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910190710000002</v>
       </c>
       <c r="Q45" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.05270453</v>
       </c>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45131.482048611113</v>
+        <v>45131.482291666667</v>
       </c>
       <c r="B46" s="3">
-        <v>9.2423029999999997</v>
+        <v>8.9302039999999998</v>
       </c>
       <c r="C46" s="3">
-        <v>9.0141559999999998</v>
+        <v>9.2952619999999992</v>
       </c>
       <c r="D46" s="3">
-        <v>92.862300000000005</v>
+        <v>77.340170000000001</v>
       </c>
       <c r="E46" s="3">
-        <v>103.8999</v>
+        <v>91.911249999999995</v>
       </c>
       <c r="F46" s="3">
-        <v>4.867805E-2</v>
+        <v>4.2818870000000002E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99835949999999996</v>
+        <v>0.99886209999999997</v>
       </c>
       <c r="H46" s="3">
-        <v>6.7536680000000002E-2</v>
+        <v>5.974231E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>0.95006190000000001</v>
+        <v>0.97558180000000005</v>
       </c>
       <c r="J46" s="3">
-        <v>19.475059999999999</v>
+        <v>16.758520000000001</v>
       </c>
       <c r="K46" s="3">
-        <v>4.5506380000000002</v>
+        <v>13.36641</v>
       </c>
       <c r="L46" s="3">
-        <v>11.122299999999999</v>
+        <v>31.455279999999998</v>
       </c>
       <c r="M46" s="3">
-        <v>3.199417</v>
+        <v>9.4164019999999997</v>
       </c>
       <c r="N46" s="3">
-        <v>0.42562149999999999</v>
+        <v>0.34769870000000003</v>
       </c>
       <c r="O46" s="3">
-        <v>996.33159999999998</v>
+        <v>996.34829999999999</v>
       </c>
       <c r="P46" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910190710000002</v>
       </c>
       <c r="Q46" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.05270453</v>
       </c>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45131.482060185182</v>
+        <v>45131.482303240744</v>
       </c>
       <c r="B47" s="3">
-        <v>9.2486239999999995</v>
+        <v>8.9227299999999996</v>
       </c>
       <c r="C47" s="3">
-        <v>9.0090959999999995</v>
+        <v>9.3110789999999994</v>
       </c>
       <c r="D47" s="3">
-        <v>92.842370000000003</v>
+        <v>76.918719999999993</v>
       </c>
       <c r="E47" s="3">
-        <v>103.89579999999999</v>
+        <v>91.589129999999997</v>
       </c>
       <c r="F47" s="3">
-        <v>4.8675990000000002E-2</v>
+        <v>4.2661119999999997E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99836060000000004</v>
+        <v>0.99887630000000005</v>
       </c>
       <c r="H47" s="3">
-        <v>6.753352E-2</v>
+        <v>5.9532939999999999E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>0.95346019999999998</v>
+        <v>0.97491879999999997</v>
       </c>
       <c r="J47" s="3">
-        <v>19.467449999999999</v>
+        <v>16.661639999999998</v>
       </c>
       <c r="K47" s="3">
-        <v>4.6114269999999999</v>
+        <v>13.42928</v>
       </c>
       <c r="L47" s="3">
-        <v>11.262589999999999</v>
+        <v>31.600190000000001</v>
       </c>
       <c r="M47" s="3">
-        <v>3.242156</v>
+        <v>9.4493569999999991</v>
       </c>
       <c r="N47" s="3">
-        <v>0.42426799999999998</v>
+        <v>0.34575689999999998</v>
       </c>
       <c r="O47" s="3">
-        <v>996.3306</v>
+        <v>996.34870000000001</v>
       </c>
       <c r="P47" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910190710000002</v>
       </c>
       <c r="Q47" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.05270453</v>
       </c>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45131.482071759259</v>
+        <v>45131.482314814813</v>
       </c>
       <c r="B48" s="3">
-        <v>9.1245390000000004</v>
+        <v>8.9152570000000004</v>
       </c>
       <c r="C48" s="3">
-        <v>8.8436780000000006</v>
+        <v>9.3268959999999996</v>
       </c>
       <c r="D48" s="3">
-        <v>92.641139999999993</v>
+        <v>76.497249999999994</v>
       </c>
       <c r="E48" s="3">
-        <v>103.82980000000001</v>
+        <v>91.267030000000005</v>
       </c>
       <c r="F48" s="3">
-        <v>4.8643199999999998E-2</v>
+        <v>4.2503369999999999E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>0.9983746</v>
+        <v>0.99889050000000001</v>
       </c>
       <c r="H48" s="3">
-        <v>6.7486669999999999E-2</v>
+        <v>5.9323569999999999E-2</v>
       </c>
       <c r="I48" s="3">
-        <v>0.84891289999999997</v>
+        <v>0.97425580000000001</v>
       </c>
       <c r="J48" s="3">
-        <v>19.362629999999999</v>
+        <v>16.56476</v>
       </c>
       <c r="K48" s="3">
-        <v>5.6658939999999998</v>
+        <v>13.49216</v>
       </c>
       <c r="L48" s="3">
-        <v>13.694509999999999</v>
+        <v>31.74511</v>
       </c>
       <c r="M48" s="3">
-        <v>3.9835199999999999</v>
+        <v>9.4823129999999995</v>
       </c>
       <c r="N48" s="3">
-        <v>0.41623379999999999</v>
+        <v>0.34381519999999999</v>
       </c>
       <c r="O48" s="3">
-        <v>996.34739999999999</v>
+        <v>996.34910000000002</v>
       </c>
       <c r="P48" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910190710000002</v>
       </c>
       <c r="Q48" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.05270453</v>
       </c>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45131.482083333336</v>
+        <v>45131.48232638889</v>
       </c>
       <c r="B49" s="3">
-        <v>9.1234719999999996</v>
+        <v>9.0664359999999995</v>
       </c>
       <c r="C49" s="3">
-        <v>8.8333049999999993</v>
+        <v>9.4383219999999994</v>
       </c>
       <c r="D49" s="3">
-        <v>92.625870000000006</v>
+        <v>74.454099999999997</v>
       </c>
       <c r="E49" s="3">
-        <v>103.82640000000001</v>
+        <v>90.742109999999997</v>
       </c>
       <c r="F49" s="3">
-        <v>4.8641480000000001E-2</v>
+        <v>4.2197070000000003E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>0.99837540000000002</v>
+        <v>0.99914590000000003</v>
       </c>
       <c r="H49" s="3">
-        <v>6.7483890000000005E-2</v>
+        <v>5.8982380000000001E-2</v>
       </c>
       <c r="I49" s="3">
-        <v>0.84447709999999998</v>
+        <v>1.0626709999999999</v>
       </c>
       <c r="J49" s="3">
-        <v>19.355460000000001</v>
+        <v>15.531230000000001</v>
       </c>
       <c r="K49" s="3">
-        <v>5.7352049999999997</v>
+        <v>14.21453</v>
       </c>
       <c r="L49" s="3">
-        <v>13.85441</v>
+        <v>33.415419999999997</v>
       </c>
       <c r="M49" s="3">
-        <v>4.0322500000000003</v>
+        <v>9.9938099999999999</v>
       </c>
       <c r="N49" s="3">
-        <v>0.4153328</v>
+        <v>0.35093099999999999</v>
       </c>
       <c r="O49" s="3">
-        <v>996.34789999999998</v>
+        <v>996.3578</v>
       </c>
       <c r="P49" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910190710000002</v>
       </c>
       <c r="Q49" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.05270453</v>
       </c>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45131.482094907406</v>
+        <v>45131.48233796296</v>
       </c>
       <c r="B50" s="3">
-        <v>9.1224059999999998</v>
+        <v>9.0706539999999993</v>
       </c>
       <c r="C50" s="3">
-        <v>8.8229310000000005</v>
+        <v>9.4494299999999996</v>
       </c>
       <c r="D50" s="3">
-        <v>92.610590000000002</v>
+        <v>74.233999999999995</v>
       </c>
       <c r="E50" s="3">
-        <v>103.82299999999999</v>
+        <v>90.634259999999998</v>
       </c>
       <c r="F50" s="3">
-        <v>4.8639759999999997E-2</v>
+        <v>4.214155E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99837629999999999</v>
+        <v>0.99916360000000004</v>
       </c>
       <c r="H50" s="3">
-        <v>6.7481109999999997E-2</v>
+        <v>5.8912270000000003E-2</v>
       </c>
       <c r="I50" s="3">
-        <v>0.84004120000000004</v>
+        <v>1.066775</v>
       </c>
       <c r="J50" s="3">
-        <v>19.348289999999999</v>
+        <v>15.440250000000001</v>
       </c>
       <c r="K50" s="3">
-        <v>5.8045159999999996</v>
+        <v>14.26477</v>
       </c>
       <c r="L50" s="3">
-        <v>14.01431</v>
+        <v>33.531509999999997</v>
       </c>
       <c r="M50" s="3">
-        <v>4.0809810000000004</v>
+        <v>10.02913</v>
       </c>
       <c r="N50" s="3">
-        <v>0.41443180000000002</v>
+        <v>0.35064659999999997</v>
       </c>
       <c r="O50" s="3">
-        <v>996.34839999999997</v>
+        <v>996.35850000000005</v>
       </c>
       <c r="P50" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910190710000002</v>
       </c>
       <c r="Q50" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.05270453</v>
       </c>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>45131.482106481482</v>
+        <v>45131.482349537036</v>
       </c>
       <c r="B51" s="3">
-        <v>9.0435300000000005</v>
+        <v>9.0748719999999992</v>
       </c>
       <c r="C51" s="3">
-        <v>8.8545909999999992</v>
+        <v>9.4605370000000004</v>
       </c>
       <c r="D51" s="3">
-        <v>92.424300000000002</v>
+        <v>74.013909999999996</v>
       </c>
       <c r="E51" s="3">
-        <v>103.7717</v>
+        <v>90.526409999999998</v>
       </c>
       <c r="F51" s="3">
-        <v>4.8614110000000002E-2</v>
+        <v>4.2086020000000002E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>0.99839040000000001</v>
+        <v>0.9991814</v>
       </c>
       <c r="H51" s="3">
-        <v>6.7451109999999995E-2</v>
+        <v>5.8842169999999999E-2</v>
       </c>
       <c r="I51" s="3">
-        <v>0.88894490000000004</v>
+        <v>1.0708789999999999</v>
       </c>
       <c r="J51" s="3">
-        <v>19.320889999999999</v>
+        <v>15.34928</v>
       </c>
       <c r="K51" s="3">
-        <v>6.6964860000000002</v>
+        <v>14.315020000000001</v>
       </c>
       <c r="L51" s="3">
-        <v>16.070129999999999</v>
+        <v>33.64761</v>
       </c>
       <c r="M51" s="3">
-        <v>4.7080979999999997</v>
+        <v>10.06446</v>
       </c>
       <c r="N51" s="3">
-        <v>0.4219522</v>
+        <v>0.35036210000000001</v>
       </c>
       <c r="O51" s="3">
-        <v>996.34889999999996</v>
+        <v>996.35910000000001</v>
       </c>
       <c r="P51" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910190710000002</v>
       </c>
       <c r="Q51" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.05270453</v>
       </c>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>45131.482118055559</v>
+        <v>45131.482361111113</v>
       </c>
       <c r="B52" s="3">
-        <v>9.0367619999999995</v>
+        <v>8.9473819999999993</v>
       </c>
       <c r="C52" s="3">
-        <v>8.8528210000000005</v>
+        <v>9.8787190000000002</v>
       </c>
       <c r="D52" s="3">
-        <v>92.410430000000005</v>
+        <v>72.208579999999998</v>
       </c>
       <c r="E52" s="3">
-        <v>103.7676</v>
+        <v>91.041920000000005</v>
       </c>
       <c r="F52" s="3">
-        <v>4.8612080000000002E-2</v>
+        <v>4.2310729999999998E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>0.99839140000000004</v>
+        <v>0.99926689999999996</v>
       </c>
       <c r="H52" s="3">
-        <v>6.7448569999999999E-2</v>
+        <v>5.9177250000000001E-2</v>
       </c>
       <c r="I52" s="3">
-        <v>0.88932259999999996</v>
+        <v>1.1185909999999999</v>
       </c>
       <c r="J52" s="3">
-        <v>19.31728</v>
+        <v>14.158569999999999</v>
       </c>
       <c r="K52" s="3">
-        <v>6.7647060000000003</v>
+        <v>15.01915</v>
       </c>
       <c r="L52" s="3">
-        <v>16.22739</v>
+        <v>35.272210000000001</v>
       </c>
       <c r="M52" s="3">
-        <v>4.756062</v>
+        <v>10.55951</v>
       </c>
       <c r="N52" s="3">
-        <v>0.42217840000000001</v>
+        <v>0.35067110000000001</v>
       </c>
       <c r="O52" s="3">
-        <v>996.34929999999997</v>
+        <v>996.33370000000002</v>
       </c>
       <c r="P52" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910190710000002</v>
       </c>
       <c r="Q52" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.05270453</v>
       </c>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>45131.482129629629</v>
+        <v>45131.482372685183</v>
       </c>
       <c r="B53" s="3">
-        <v>9.0299940000000003</v>
+        <v>8.9437960000000007</v>
       </c>
       <c r="C53" s="3">
-        <v>8.851051</v>
+        <v>9.9033479999999994</v>
       </c>
       <c r="D53" s="3">
-        <v>92.396559999999994</v>
+        <v>72.069749999999999</v>
       </c>
       <c r="E53" s="3">
-        <v>103.76349999999999</v>
+        <v>91.058589999999995</v>
       </c>
       <c r="F53" s="3">
-        <v>4.8610050000000002E-2</v>
+        <v>4.2316380000000001E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>0.99839250000000002</v>
+        <v>0.99927679999999997</v>
       </c>
       <c r="H53" s="3">
-        <v>6.7446019999999995E-2</v>
+        <v>5.9188089999999999E-2</v>
       </c>
       <c r="I53" s="3">
-        <v>0.88970020000000005</v>
+        <v>1.123003</v>
       </c>
       <c r="J53" s="3">
-        <v>19.313669999999998</v>
+        <v>14.073740000000001</v>
       </c>
       <c r="K53" s="3">
-        <v>6.8329259999999996</v>
+        <v>15.07197</v>
       </c>
       <c r="L53" s="3">
-        <v>16.38466</v>
+        <v>35.394159999999999</v>
       </c>
       <c r="M53" s="3">
-        <v>4.8040250000000002</v>
+        <v>10.59665</v>
       </c>
       <c r="N53" s="3">
-        <v>0.42240460000000002</v>
+        <v>0.35084270000000001</v>
       </c>
       <c r="O53" s="3">
-        <v>996.34969999999998</v>
+        <v>996.33259999999996</v>
       </c>
       <c r="P53" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910200629999999</v>
       </c>
       <c r="Q53" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052705110000005</v>
       </c>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>45131.482141203705</v>
+        <v>45131.48238425926</v>
       </c>
       <c r="B54" s="3">
-        <v>9.1360799999999998</v>
+        <v>8.9402089999999994</v>
       </c>
       <c r="C54" s="3">
-        <v>8.9278359999999992</v>
+        <v>9.9279770000000003</v>
       </c>
       <c r="D54" s="3">
-        <v>92.113590000000002</v>
+        <v>71.93092</v>
       </c>
       <c r="E54" s="3">
-        <v>103.54559999999999</v>
+        <v>91.075270000000003</v>
       </c>
       <c r="F54" s="3">
-        <v>4.8503879999999999E-2</v>
+        <v>4.2322039999999998E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>0.99840130000000005</v>
+        <v>0.99928669999999997</v>
       </c>
       <c r="H54" s="3">
-        <v>6.7304439999999993E-2</v>
+        <v>5.9198929999999997E-2</v>
       </c>
       <c r="I54" s="3">
-        <v>0.95688890000000004</v>
+        <v>1.1274150000000001</v>
       </c>
       <c r="J54" s="3">
-        <v>19.225960000000001</v>
+        <v>13.988910000000001</v>
       </c>
       <c r="K54" s="3">
-        <v>7.658372</v>
+        <v>15.124790000000001</v>
       </c>
       <c r="L54" s="3">
-        <v>20.30817</v>
+        <v>35.516109999999998</v>
       </c>
       <c r="M54" s="3">
-        <v>5.9999399999999996</v>
+        <v>10.63378</v>
       </c>
       <c r="N54" s="3">
-        <v>0.40754410000000002</v>
+        <v>0.3510142</v>
       </c>
       <c r="O54" s="3">
-        <v>996.34969999999998</v>
+        <v>996.33140000000003</v>
       </c>
       <c r="P54" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910200629999999</v>
       </c>
       <c r="Q54" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052705110000005</v>
       </c>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>45131.482152777775</v>
+        <v>45131.482395833336</v>
       </c>
       <c r="B55" s="3">
-        <v>9.1401070000000004</v>
+        <v>8.9366230000000009</v>
       </c>
       <c r="C55" s="3">
-        <v>8.9325960000000002</v>
+        <v>9.9526039999999991</v>
       </c>
       <c r="D55" s="3">
-        <v>92.094980000000007</v>
+        <v>71.792100000000005</v>
       </c>
       <c r="E55" s="3">
-        <v>103.5331</v>
+        <v>91.091939999999994</v>
       </c>
       <c r="F55" s="3">
-        <v>4.8497800000000001E-2</v>
+        <v>4.2327700000000003E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>0.99840209999999996</v>
+        <v>0.99929659999999998</v>
       </c>
       <c r="H55" s="3">
-        <v>6.7296419999999996E-2</v>
+        <v>5.9209770000000002E-2</v>
       </c>
       <c r="I55" s="3">
-        <v>0.96148279999999997</v>
+        <v>1.1318269999999999</v>
       </c>
       <c r="J55" s="3">
-        <v>19.220829999999999</v>
+        <v>13.90408</v>
       </c>
       <c r="K55" s="3">
-        <v>7.7196410000000002</v>
+        <v>15.17761</v>
       </c>
       <c r="L55" s="3">
-        <v>20.555440000000001</v>
+        <v>35.63805</v>
       </c>
       <c r="M55" s="3">
-        <v>6.0753190000000004</v>
+        <v>10.670920000000001</v>
       </c>
       <c r="N55" s="3">
-        <v>0.4069217</v>
+        <v>0.35118579999999999</v>
       </c>
       <c r="O55" s="3">
-        <v>996.34969999999998</v>
+        <v>996.33019999999999</v>
       </c>
       <c r="P55" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910200629999999</v>
       </c>
       <c r="Q55" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052705110000005</v>
       </c>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>45131.482164351852</v>
+        <v>45131.482407407406</v>
       </c>
       <c r="B56" s="3">
-        <v>9.1441350000000003</v>
+        <v>9.0707129999999996</v>
       </c>
       <c r="C56" s="3">
-        <v>8.9373570000000004</v>
+        <v>10.175269999999999</v>
       </c>
       <c r="D56" s="3">
-        <v>92.076359999999994</v>
+        <v>69.909530000000004</v>
       </c>
       <c r="E56" s="3">
-        <v>103.5206</v>
+        <v>90.148240000000001</v>
       </c>
       <c r="F56" s="3">
-        <v>4.849171E-2</v>
+        <v>4.0754350000000002E-2</v>
       </c>
       <c r="G56" s="3">
-        <v>0.99840280000000003</v>
+        <v>0.99946210000000002</v>
       </c>
       <c r="H56" s="3">
-        <v>6.7288390000000003E-2</v>
+        <v>5.718094E-2</v>
       </c>
       <c r="I56" s="3">
-        <v>0.96607670000000001</v>
+        <v>1.1967589999999999</v>
       </c>
       <c r="J56" s="3">
-        <v>19.215710000000001</v>
+        <v>13.242599999999999</v>
       </c>
       <c r="K56" s="3">
-        <v>7.7809090000000003</v>
+        <v>17.187809999999999</v>
       </c>
       <c r="L56" s="3">
-        <v>20.802710000000001</v>
+        <v>40.274839999999998</v>
       </c>
       <c r="M56" s="3">
-        <v>6.1506990000000004</v>
+        <v>12.08423</v>
       </c>
       <c r="N56" s="3">
-        <v>0.40629920000000003</v>
+        <v>0.36675960000000002</v>
       </c>
       <c r="O56" s="3">
-        <v>996.34969999999998</v>
+        <v>996.33910000000003</v>
       </c>
       <c r="P56" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910200629999999</v>
       </c>
       <c r="Q56" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052705110000005</v>
       </c>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>45131.482175925928</v>
+        <v>45131.482418981483</v>
       </c>
       <c r="B57" s="3">
-        <v>9.148161</v>
+        <v>9.0744000000000007</v>
       </c>
       <c r="C57" s="3">
-        <v>8.9421169999999996</v>
+        <v>10.196070000000001</v>
       </c>
       <c r="D57" s="3">
-        <v>92.057749999999999</v>
+        <v>69.773229999999998</v>
       </c>
       <c r="E57" s="3">
-        <v>103.5082</v>
+        <v>90.113330000000005</v>
       </c>
       <c r="F57" s="3">
-        <v>4.8485630000000002E-2</v>
+        <v>4.068194E-2</v>
       </c>
       <c r="G57" s="3">
-        <v>0.9984035</v>
+        <v>0.99947240000000004</v>
       </c>
       <c r="H57" s="3">
-        <v>6.7280370000000006E-2</v>
+        <v>5.7088640000000003E-2</v>
       </c>
       <c r="I57" s="3">
-        <v>0.9706707</v>
+        <v>1.2011149999999999</v>
       </c>
       <c r="J57" s="3">
-        <v>19.21059</v>
+        <v>13.18153</v>
       </c>
       <c r="K57" s="3">
-        <v>7.8421779999999996</v>
+        <v>17.303570000000001</v>
       </c>
       <c r="L57" s="3">
-        <v>21.049980000000001</v>
+        <v>40.541870000000003</v>
       </c>
       <c r="M57" s="3">
-        <v>6.2260780000000002</v>
+        <v>12.165620000000001</v>
       </c>
       <c r="N57" s="3">
-        <v>0.4056768</v>
+        <v>0.36753459999999999</v>
       </c>
       <c r="O57" s="3">
-        <v>996.34969999999998</v>
+        <v>996.33889999999997</v>
       </c>
       <c r="P57" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910200629999999</v>
       </c>
       <c r="Q57" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052705110000005</v>
       </c>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>45131.482187499998</v>
+        <v>45131.482430555552</v>
       </c>
       <c r="B58" s="3">
-        <v>9.0666860000000007</v>
+        <v>9.0780860000000008</v>
       </c>
       <c r="C58" s="3">
-        <v>8.9474689999999999</v>
+        <v>10.21688</v>
       </c>
       <c r="D58" s="3">
-        <v>91.20138</v>
+        <v>69.636920000000003</v>
       </c>
       <c r="E58" s="3">
-        <v>102.96339999999999</v>
+        <v>90.078410000000005</v>
       </c>
       <c r="F58" s="3">
-        <v>4.8219270000000002E-2</v>
+        <v>4.0609520000000003E-2</v>
       </c>
       <c r="G58" s="3">
-        <v>0.99844060000000001</v>
+        <v>0.9994826</v>
       </c>
       <c r="H58" s="3">
-        <v>6.6926230000000003E-2</v>
+        <v>5.6996350000000001E-2</v>
       </c>
       <c r="I58" s="3">
-        <v>0.9358978</v>
+        <v>1.2054720000000001</v>
       </c>
       <c r="J58" s="3">
-        <v>19.144069999999999</v>
+        <v>13.120469999999999</v>
       </c>
       <c r="K58" s="3">
-        <v>9.7047729999999994</v>
+        <v>17.419329999999999</v>
       </c>
       <c r="L58" s="3">
-        <v>23.246189999999999</v>
+        <v>40.808909999999997</v>
       </c>
       <c r="M58" s="3">
-        <v>6.8943399999999997</v>
+        <v>12.24701</v>
       </c>
       <c r="N58" s="3">
-        <v>0.4133482</v>
+        <v>0.36830960000000001</v>
       </c>
       <c r="O58" s="3">
-        <v>996.39359999999999</v>
+        <v>996.33879999999999</v>
       </c>
       <c r="P58" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910200629999999</v>
       </c>
       <c r="Q58" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052705110000005</v>
       </c>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>45131.482199074075</v>
+        <v>45131.482442129629</v>
       </c>
       <c r="B59" s="3">
-        <v>9.0648820000000008</v>
+        <v>9.447794</v>
       </c>
       <c r="C59" s="3">
-        <v>8.9494530000000001</v>
+        <v>10.93127</v>
       </c>
       <c r="D59" s="3">
-        <v>91.151589999999999</v>
+        <v>64.408289999999994</v>
       </c>
       <c r="E59" s="3">
-        <v>102.93089999999999</v>
+        <v>87.298429999999996</v>
       </c>
       <c r="F59" s="3">
-        <v>4.8203389999999999E-2</v>
+        <v>4.0231240000000001E-2</v>
       </c>
       <c r="G59" s="3">
-        <v>0.99844259999999996</v>
+        <v>0.99961710000000004</v>
       </c>
       <c r="H59" s="3">
-        <v>6.6905110000000004E-2</v>
+        <v>5.6588239999999998E-2</v>
       </c>
       <c r="I59" s="3">
-        <v>0.93563640000000003</v>
+        <v>1.2392449999999999</v>
       </c>
       <c r="J59" s="3">
-        <v>19.138739999999999</v>
+        <v>12.482279999999999</v>
       </c>
       <c r="K59" s="3">
-        <v>9.8178509999999992</v>
+        <v>18.331199999999999</v>
       </c>
       <c r="L59" s="3">
-        <v>23.44519</v>
+        <v>42.912570000000002</v>
       </c>
       <c r="M59" s="3">
-        <v>6.9549370000000001</v>
+        <v>12.888109999999999</v>
       </c>
       <c r="N59" s="3">
-        <v>0.41341020000000001</v>
+        <v>0.42372919999999997</v>
       </c>
       <c r="O59" s="3">
-        <v>996.39589999999998</v>
+        <v>996.33950000000004</v>
       </c>
       <c r="P59" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910200629999999</v>
       </c>
       <c r="Q59" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052705110000005</v>
       </c>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>45131.482210648152</v>
+        <v>45131.482453703706</v>
       </c>
       <c r="B60" s="3">
-        <v>9.0630780000000009</v>
+        <v>9.4692989999999995</v>
       </c>
       <c r="C60" s="3">
-        <v>8.9514370000000003</v>
+        <v>10.97287</v>
       </c>
       <c r="D60" s="3">
-        <v>91.101789999999994</v>
+        <v>64.099779999999996</v>
       </c>
       <c r="E60" s="3">
-        <v>102.8984</v>
+        <v>87.13776</v>
       </c>
       <c r="F60" s="3">
-        <v>4.8187510000000003E-2</v>
+        <v>4.0179960000000001E-2</v>
       </c>
       <c r="G60" s="3">
-        <v>0.99844469999999996</v>
+        <v>0.99962759999999995</v>
       </c>
       <c r="H60" s="3">
-        <v>6.6883990000000004E-2</v>
+        <v>5.6526270000000003E-2</v>
       </c>
       <c r="I60" s="3">
-        <v>0.93537499999999996</v>
+        <v>1.2423979999999999</v>
       </c>
       <c r="J60" s="3">
-        <v>19.133420000000001</v>
+        <v>12.43418</v>
       </c>
       <c r="K60" s="3">
-        <v>9.93093</v>
+        <v>18.420030000000001</v>
       </c>
       <c r="L60" s="3">
-        <v>23.644189999999998</v>
+        <v>43.1175</v>
       </c>
       <c r="M60" s="3">
-        <v>7.0155349999999999</v>
+        <v>12.950570000000001</v>
       </c>
       <c r="N60" s="3">
-        <v>0.41347230000000001</v>
+        <v>0.4268787</v>
       </c>
       <c r="O60" s="3">
-        <v>996.3981</v>
+        <v>996.33969999999999</v>
       </c>
       <c r="P60" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910199679999998</v>
       </c>
       <c r="Q60" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052718440000007</v>
       </c>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>45131.482222222221</v>
+        <v>45131.482465277775</v>
       </c>
       <c r="B61" s="3">
-        <v>9.0305619999999998</v>
+        <v>9.4908059999999992</v>
       </c>
       <c r="C61" s="3">
-        <v>8.9039149999999996</v>
+        <v>11.01446</v>
       </c>
       <c r="D61" s="3">
-        <v>90.299359999999993</v>
+        <v>63.791260000000001</v>
       </c>
       <c r="E61" s="3">
-        <v>102.3081</v>
+        <v>86.977080000000001</v>
       </c>
       <c r="F61" s="3">
-        <v>4.7899490000000003E-2</v>
+        <v>4.012868E-2</v>
       </c>
       <c r="G61" s="3">
-        <v>0.99847249999999999</v>
+        <v>0.99963809999999997</v>
       </c>
       <c r="H61" s="3">
-        <v>6.6500290000000004E-2</v>
+        <v>5.6464300000000002E-2</v>
       </c>
       <c r="I61" s="3">
-        <v>0.96516950000000001</v>
+        <v>1.2455510000000001</v>
       </c>
       <c r="J61" s="3">
-        <v>18.8688</v>
+        <v>12.386089999999999</v>
       </c>
       <c r="K61" s="3">
-        <v>10.90114</v>
+        <v>18.508870000000002</v>
       </c>
       <c r="L61" s="3">
-        <v>25.836659999999998</v>
+        <v>43.32244</v>
       </c>
       <c r="M61" s="3">
-        <v>8.1961980000000008</v>
+        <v>13.013030000000001</v>
       </c>
       <c r="N61" s="3">
-        <v>0.39808779999999999</v>
+        <v>0.43002810000000002</v>
       </c>
       <c r="O61" s="3">
-        <v>996.34609999999998</v>
+        <v>996.33979999999997</v>
       </c>
       <c r="P61" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910205470000001</v>
       </c>
       <c r="Q61" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052729009999993</v>
       </c>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>45131.482233796298</v>
+        <v>45131.482476851852</v>
       </c>
       <c r="B62" s="3">
-        <v>9.0272030000000001</v>
+        <v>9.4703140000000001</v>
       </c>
       <c r="C62" s="3">
-        <v>8.9016719999999996</v>
+        <v>11.182589999999999</v>
       </c>
       <c r="D62" s="3">
-        <v>90.239869999999996</v>
+        <v>63.018239999999999</v>
       </c>
       <c r="E62" s="3">
-        <v>102.2662</v>
+        <v>87.704099999999997</v>
       </c>
       <c r="F62" s="3">
-        <v>4.7879030000000003E-2</v>
+        <v>4.0442350000000002E-2</v>
       </c>
       <c r="G62" s="3">
-        <v>0.99847470000000005</v>
+        <v>0.99973639999999997</v>
       </c>
       <c r="H62" s="3">
-        <v>6.6473039999999997E-2</v>
+        <v>5.7461749999999999E-2</v>
       </c>
       <c r="I62" s="3">
-        <v>0.96600739999999996</v>
+        <v>1.217233</v>
       </c>
       <c r="J62" s="3">
-        <v>18.853829999999999</v>
+        <v>10.405749999999999</v>
       </c>
       <c r="K62" s="3">
-        <v>10.991339999999999</v>
+        <v>19.820509999999999</v>
       </c>
       <c r="L62" s="3">
-        <v>25.99879</v>
+        <v>46.347740000000002</v>
       </c>
       <c r="M62" s="3">
-        <v>8.271706</v>
+        <v>13.9352</v>
       </c>
       <c r="N62" s="3">
-        <v>0.39746100000000001</v>
+        <v>0.49292649999999999</v>
       </c>
       <c r="O62" s="3">
-        <v>996.34439999999995</v>
+        <v>996.32230000000004</v>
       </c>
       <c r="P62" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910207399999997</v>
       </c>
       <c r="Q62" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052744630000007</v>
       </c>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>45131.482245370367</v>
+        <v>45131.482488425929</v>
       </c>
       <c r="B63" s="3">
-        <v>9.0238440000000004</v>
+        <v>9.4771739999999998</v>
       </c>
       <c r="C63" s="3">
-        <v>8.8994289999999996</v>
+        <v>11.206799999999999</v>
       </c>
       <c r="D63" s="3">
-        <v>90.180369999999996</v>
+        <v>62.865029999999997</v>
       </c>
       <c r="E63" s="3">
-        <v>102.2243</v>
+        <v>87.681700000000006</v>
       </c>
       <c r="F63" s="3">
-        <v>4.7858570000000003E-2</v>
+        <v>4.044996E-2</v>
       </c>
       <c r="G63" s="3">
-        <v>0.9984769</v>
+        <v>0.99974439999999998</v>
       </c>
       <c r="H63" s="3">
-        <v>6.6445809999999994E-2</v>
+        <v>5.7503690000000003E-2</v>
       </c>
       <c r="I63" s="3">
-        <v>0.96684519999999996</v>
+        <v>1.2165459999999999</v>
       </c>
       <c r="J63" s="3">
-        <v>18.838850000000001</v>
+        <v>10.289759999999999</v>
       </c>
       <c r="K63" s="3">
-        <v>11.08155</v>
+        <v>19.908249999999999</v>
       </c>
       <c r="L63" s="3">
-        <v>26.160920000000001</v>
+        <v>46.550130000000003</v>
       </c>
       <c r="M63" s="3">
-        <v>8.3472139999999992</v>
+        <v>13.99689</v>
       </c>
       <c r="N63" s="3">
-        <v>0.39683420000000003</v>
+        <v>0.4973455</v>
       </c>
       <c r="O63" s="3">
-        <v>996.34270000000004</v>
+        <v>996.32140000000004</v>
       </c>
       <c r="P63" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910207399999997</v>
       </c>
       <c r="Q63" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052744630000007</v>
       </c>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>45131.482256944444</v>
+        <v>45131.482499999998</v>
       </c>
       <c r="B64" s="3">
-        <v>9.0984429999999996</v>
+        <v>9.4840339999999994</v>
       </c>
       <c r="C64" s="3">
-        <v>9.0323209999999996</v>
+        <v>11.231009999999999</v>
       </c>
       <c r="D64" s="3">
-        <v>83.431370000000001</v>
+        <v>62.71181</v>
       </c>
       <c r="E64" s="3">
-        <v>96.343389999999999</v>
+        <v>87.659300000000002</v>
       </c>
       <c r="F64" s="3">
-        <v>4.4994369999999999E-2</v>
+        <v>4.0457569999999998E-2</v>
       </c>
       <c r="G64" s="3">
-        <v>0.99863619999999997</v>
+        <v>0.99975250000000004</v>
       </c>
       <c r="H64" s="3">
-        <v>6.2623209999999999E-2</v>
+        <v>5.7545640000000002E-2</v>
       </c>
       <c r="I64" s="3">
-        <v>0.99610209999999999</v>
+        <v>1.2158599999999999</v>
       </c>
       <c r="J64" s="3">
-        <v>18.552350000000001</v>
+        <v>10.173769999999999</v>
       </c>
       <c r="K64" s="3">
-        <v>12.58638</v>
+        <v>19.995989999999999</v>
       </c>
       <c r="L64" s="3">
-        <v>29.657119999999999</v>
+        <v>46.752519999999997</v>
       </c>
       <c r="M64" s="3">
-        <v>8.9109990000000003</v>
+        <v>14.058579999999999</v>
       </c>
       <c r="N64" s="3">
-        <v>0.3809536</v>
+        <v>0.50176449999999995</v>
       </c>
       <c r="O64" s="3">
-        <v>996.3415</v>
+        <v>996.32050000000004</v>
       </c>
       <c r="P64" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910207399999997</v>
       </c>
       <c r="Q64" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052744630000007</v>
       </c>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>45131.482268518521</v>
+        <v>45131.482511574075</v>
       </c>
       <c r="B65" s="3">
-        <v>9.1015879999999996</v>
+        <v>9.3572930000000003</v>
       </c>
       <c r="C65" s="3">
-        <v>9.0381900000000002</v>
+        <v>11.39583</v>
       </c>
       <c r="D65" s="3">
-        <v>83.066019999999995</v>
+        <v>62.938090000000003</v>
       </c>
       <c r="E65" s="3">
-        <v>96.027469999999994</v>
+        <v>88.94444</v>
       </c>
       <c r="F65" s="3">
-        <v>4.4840499999999998E-2</v>
+        <v>4.1027319999999999E-2</v>
       </c>
       <c r="G65" s="3">
-        <v>0.99864509999999995</v>
+        <v>0.99976339999999997</v>
       </c>
       <c r="H65" s="3">
-        <v>6.2417859999999999E-2</v>
+        <v>5.7871810000000003E-2</v>
       </c>
       <c r="I65" s="3">
-        <v>0.99824409999999997</v>
+        <v>1.3008869999999999</v>
       </c>
       <c r="J65" s="3">
-        <v>18.53192</v>
+        <v>9.8653720000000007</v>
       </c>
       <c r="K65" s="3">
-        <v>12.68577</v>
+        <v>20.961179999999999</v>
       </c>
       <c r="L65" s="3">
-        <v>29.886230000000001</v>
+        <v>48.978900000000003</v>
       </c>
       <c r="M65" s="3">
-        <v>8.9658320000000007</v>
+        <v>14.73718</v>
       </c>
       <c r="N65" s="3">
-        <v>0.3798086</v>
+        <v>0.50977240000000001</v>
       </c>
       <c r="O65" s="3">
-        <v>996.34029999999996</v>
+        <v>996.37249999999995</v>
       </c>
       <c r="P65" s="3">
-        <v>46.910198870000002</v>
+        <v>46.910214699999997</v>
       </c>
       <c r="Q65" s="3">
-        <v>-91.052697240000001</v>
+        <v>-91.052755860000005</v>
       </c>
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>45131.48228009259</v>
+        <v>45131.482523148145</v>
       </c>
       <c r="B66" s="3">
-        <v>9.1047329999999995</v>
+        <v>9.3504389999999997</v>
       </c>
       <c r="C66" s="3">
-        <v>9.0440590000000007</v>
+        <v>11.408440000000001</v>
       </c>
       <c r="D66" s="3">
-        <v>82.700689999999994</v>
+        <v>62.930419999999998</v>
       </c>
       <c r="E66" s="3">
-        <v>95.711560000000006</v>
+        <v>89.025549999999996</v>
       </c>
       <c r="F66" s="3">
-        <v>4.4686620000000003E-2</v>
+        <v>4.1063269999999999E-2</v>
       </c>
       <c r="G66" s="3">
-        <v>0.99865389999999998</v>
+        <v>0.99976620000000005</v>
       </c>
       <c r="H66" s="3">
-        <v>6.221252E-2</v>
+        <v>5.79094E-2</v>
       </c>
       <c r="I66" s="3">
-        <v>1.000386</v>
+        <v>1.30477</v>
       </c>
       <c r="J66" s="3">
-        <v>18.511479999999999</v>
+        <v>9.8066800000000001</v>
       </c>
       <c r="K66" s="3">
-        <v>12.785170000000001</v>
+        <v>21.040500000000002</v>
       </c>
       <c r="L66" s="3">
-        <v>30.115349999999999</v>
+        <v>49.16187</v>
       </c>
       <c r="M66" s="3">
-        <v>9.0206630000000008</v>
+        <v>14.79294</v>
       </c>
       <c r="N66" s="3">
-        <v>0.37866359999999999</v>
+        <v>0.51155879999999998</v>
       </c>
       <c r="O66" s="3">
-        <v>996.33920000000001</v>
+        <v>996.37480000000005</v>
       </c>
       <c r="P66" s="3">
-        <v>46.910190710000002</v>
+        <v>46.910214699999997</v>
       </c>
       <c r="Q66" s="3">
-        <v>-91.05270453</v>
+        <v>-91.052755860000005</v>
       </c>
       <c r="R66" s="3"/>
     </row>
     <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>45131.482291666667</v>
+        <v>45131.482534722221</v>
       </c>
       <c r="B67" s="3">
-        <v>8.9302039999999998</v>
+        <v>9.3435839999999999</v>
       </c>
       <c r="C67" s="3">
-        <v>9.2952619999999992</v>
+        <v>11.421060000000001</v>
       </c>
       <c r="D67" s="3">
-        <v>77.340170000000001</v>
+        <v>62.922750000000001</v>
       </c>
       <c r="E67" s="3">
-        <v>91.911249999999995</v>
+        <v>89.106660000000005</v>
       </c>
       <c r="F67" s="3">
-        <v>4.2818870000000002E-2</v>
+        <v>4.1099209999999997E-2</v>
       </c>
       <c r="G67" s="3">
-        <v>0.99886209999999997</v>
+        <v>0.99976889999999996</v>
       </c>
       <c r="H67" s="3">
-        <v>5.974231E-2</v>
+        <v>5.7946989999999997E-2</v>
       </c>
       <c r="I67" s="3">
-        <v>0.97558180000000005</v>
+        <v>1.308654</v>
       </c>
       <c r="J67" s="3">
-        <v>16.758520000000001</v>
+        <v>9.7479879999999994</v>
       </c>
       <c r="K67" s="3">
-        <v>13.36641</v>
+        <v>21.119820000000001</v>
       </c>
       <c r="L67" s="3">
-        <v>31.455279999999998</v>
+        <v>49.344830000000002</v>
       </c>
       <c r="M67" s="3">
-        <v>9.4164019999999997</v>
+        <v>14.848710000000001</v>
       </c>
       <c r="N67" s="3">
-        <v>0.34769870000000003</v>
+        <v>0.5133453</v>
       </c>
       <c r="O67" s="3">
-        <v>996.34829999999999</v>
+        <v>996.37720000000002</v>
       </c>
       <c r="P67" s="3">
-        <v>46.910190710000002</v>
+        <v>46.910214699999997</v>
       </c>
       <c r="Q67" s="3">
-        <v>-91.05270453</v>
+        <v>-91.052755860000005</v>
       </c>
       <c r="R67" s="3"/>
     </row>
     <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>45131.482303240744</v>
+        <v>45131.482546296298</v>
       </c>
       <c r="B68" s="3">
-        <v>8.9227299999999996</v>
+        <v>9.7163280000000007</v>
       </c>
       <c r="C68" s="3">
-        <v>9.3110789999999994</v>
+        <v>11.69679</v>
       </c>
       <c r="D68" s="3">
-        <v>76.918719999999993</v>
+        <v>62.792079999999999</v>
       </c>
       <c r="E68" s="3">
-        <v>91.589129999999997</v>
+        <v>90.205129999999997</v>
       </c>
       <c r="F68" s="3">
-        <v>4.2661119999999997E-2</v>
+        <v>4.1579360000000003E-2</v>
       </c>
       <c r="G68" s="3">
-        <v>0.99887630000000005</v>
+        <v>0.99980990000000003</v>
       </c>
       <c r="H68" s="3">
-        <v>5.9532939999999999E-2</v>
+        <v>5.8677220000000002E-2</v>
       </c>
       <c r="I68" s="3">
-        <v>0.97491879999999997</v>
+        <v>1.44156</v>
       </c>
       <c r="J68" s="3">
-        <v>16.661639999999998</v>
+        <v>9.1069370000000003</v>
       </c>
       <c r="K68" s="3">
-        <v>13.42928</v>
+        <v>21.400870000000001</v>
       </c>
       <c r="L68" s="3">
-        <v>31.600190000000001</v>
+        <v>49.51699</v>
       </c>
       <c r="M68" s="3">
-        <v>9.4493569999999991</v>
+        <v>15.06626</v>
       </c>
       <c r="N68" s="3">
-        <v>0.34575689999999998</v>
+        <v>0.54387810000000003</v>
       </c>
       <c r="O68" s="3">
-        <v>996.34870000000001</v>
+        <v>996.35199999999998</v>
       </c>
       <c r="P68" s="3">
-        <v>46.910190710000002</v>
+        <v>46.910214699999997</v>
       </c>
       <c r="Q68" s="3">
-        <v>-91.05270453</v>
+        <v>-91.052755860000005</v>
       </c>
       <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>45131.482314814813</v>
+        <v>45131.482557870368</v>
       </c>
       <c r="B69" s="3">
-        <v>8.9152570000000004</v>
+        <v>9.7331679999999992</v>
       </c>
       <c r="C69" s="3">
-        <v>9.3268959999999996</v>
+        <v>11.71508</v>
       </c>
       <c r="D69" s="3">
-        <v>76.497249999999994</v>
+        <v>62.788510000000002</v>
       </c>
       <c r="E69" s="3">
-        <v>91.267030000000005</v>
+        <v>90.290139999999994</v>
       </c>
       <c r="F69" s="3">
-        <v>4.2503369999999999E-2</v>
+        <v>4.1616920000000002E-2</v>
       </c>
       <c r="G69" s="3">
-        <v>0.99889050000000001</v>
+        <v>0.99981240000000005</v>
       </c>
       <c r="H69" s="3">
-        <v>5.9323569999999999E-2</v>
+        <v>5.8722719999999999E-2</v>
       </c>
       <c r="I69" s="3">
-        <v>0.97425580000000001</v>
+        <v>1.450377</v>
       </c>
       <c r="J69" s="3">
-        <v>16.56476</v>
+        <v>9.0659240000000008</v>
       </c>
       <c r="K69" s="3">
-        <v>13.49216</v>
+        <v>21.437280000000001</v>
       </c>
       <c r="L69" s="3">
-        <v>31.74511</v>
+        <v>49.576050000000002</v>
       </c>
       <c r="M69" s="3">
-        <v>9.4823129999999995</v>
+        <v>15.09291</v>
       </c>
       <c r="N69" s="3">
-        <v>0.34381519999999999</v>
+        <v>0.54568380000000005</v>
       </c>
       <c r="O69" s="3">
-        <v>996.34910000000002</v>
+        <v>996.35180000000003</v>
       </c>
       <c r="P69" s="3">
-        <v>46.910190710000002</v>
+        <v>46.910214699999997</v>
       </c>
       <c r="Q69" s="3">
-        <v>-91.05270453</v>
+        <v>-91.052755860000005</v>
       </c>
       <c r="R69" s="3"/>
     </row>
     <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>45131.48232638889</v>
+        <v>45131.482569444444</v>
       </c>
       <c r="B70" s="3">
-        <v>9.0664359999999995</v>
+        <v>9.7500079999999993</v>
       </c>
       <c r="C70" s="3">
-        <v>9.4383219999999994</v>
+        <v>11.733359999999999</v>
       </c>
       <c r="D70" s="3">
-        <v>74.454099999999997</v>
+        <v>62.784930000000003</v>
       </c>
       <c r="E70" s="3">
-        <v>90.742109999999997</v>
+        <v>90.375140000000002</v>
       </c>
       <c r="F70" s="3">
-        <v>4.2197070000000003E-2</v>
+        <v>4.1654490000000002E-2</v>
       </c>
       <c r="G70" s="3">
-        <v>0.99914590000000003</v>
+        <v>0.9998148</v>
       </c>
       <c r="H70" s="3">
-        <v>5.8982380000000001E-2</v>
+        <v>5.8768229999999998E-2</v>
       </c>
       <c r="I70" s="3">
-        <v>1.0626709999999999</v>
+        <v>1.4591940000000001</v>
       </c>
       <c r="J70" s="3">
-        <v>15.531230000000001</v>
+        <v>9.0249089999999992</v>
       </c>
       <c r="K70" s="3">
-        <v>14.21453</v>
+        <v>21.473690000000001</v>
       </c>
       <c r="L70" s="3">
-        <v>33.415419999999997</v>
+        <v>49.635120000000001</v>
       </c>
       <c r="M70" s="3">
-        <v>9.9938099999999999</v>
+        <v>15.11955</v>
       </c>
       <c r="N70" s="3">
-        <v>0.35093099999999999</v>
+        <v>0.54748949999999996</v>
       </c>
       <c r="O70" s="3">
-        <v>996.3578</v>
+        <v>996.35159999999996</v>
       </c>
       <c r="P70" s="3">
-        <v>46.910190710000002</v>
+        <v>46.910214699999997</v>
       </c>
       <c r="Q70" s="3">
-        <v>-91.05270453</v>
+        <v>-91.052755860000005</v>
       </c>
       <c r="R70" s="3"/>
     </row>
     <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>45131.48233796296</v>
+        <v>45131.482581018521</v>
       </c>
       <c r="B71" s="3">
-        <v>9.0706539999999993</v>
+        <v>12.602930000000001</v>
       </c>
       <c r="C71" s="3">
-        <v>9.4494299999999996</v>
+        <v>11.869160000000001</v>
       </c>
       <c r="D71" s="3">
-        <v>74.233999999999995</v>
+        <v>62.628909999999998</v>
       </c>
       <c r="E71" s="3">
-        <v>90.634259999999998</v>
+        <v>90.422629999999998</v>
       </c>
       <c r="F71" s="3">
-        <v>4.214155E-2</v>
+        <v>4.1666910000000001E-2</v>
       </c>
       <c r="G71" s="3">
-        <v>0.99916360000000004</v>
+        <v>0.99982320000000002</v>
       </c>
       <c r="H71" s="3">
-        <v>5.8912270000000003E-2</v>
+        <v>5.87781E-2</v>
       </c>
       <c r="I71" s="3">
-        <v>1.066775</v>
+        <v>1.742049</v>
       </c>
       <c r="J71" s="3">
-        <v>15.440250000000001</v>
+        <v>8.9577059999999999</v>
       </c>
       <c r="K71" s="3">
-        <v>14.26477</v>
+        <v>21.47861</v>
       </c>
       <c r="L71" s="3">
-        <v>33.531509999999997</v>
+        <v>49.573749999999997</v>
       </c>
       <c r="M71" s="3">
-        <v>10.02913</v>
+        <v>15.103440000000001</v>
       </c>
       <c r="N71" s="3">
-        <v>0.35064659999999997</v>
+        <v>0.56340159999999995</v>
       </c>
       <c r="O71" s="3">
-        <v>996.35850000000005</v>
+        <v>996.33339999999998</v>
       </c>
       <c r="P71" s="3">
-        <v>46.910190710000002</v>
+        <v>46.910214699999997</v>
       </c>
       <c r="Q71" s="3">
-        <v>-91.05270453</v>
+        <v>-91.052755860000005</v>
       </c>
       <c r="R71" s="3"/>
     </row>
     <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>45131.482349537036</v>
+        <v>45131.482592592591</v>
       </c>
       <c r="B72" s="3">
-        <v>9.0748719999999992</v>
+        <v>12.76135</v>
       </c>
       <c r="C72" s="3">
-        <v>9.4605370000000004</v>
+        <v>11.882379999999999</v>
       </c>
       <c r="D72" s="3">
-        <v>74.013909999999996</v>
+        <v>62.617739999999998</v>
       </c>
       <c r="E72" s="3">
-        <v>90.526409999999998</v>
+        <v>90.4495</v>
       </c>
       <c r="F72" s="3">
-        <v>4.2086020000000002E-2</v>
+        <v>4.1678220000000002E-2</v>
       </c>
       <c r="G72" s="3">
-        <v>0.9991814</v>
+        <v>0.9998245</v>
       </c>
       <c r="H72" s="3">
-        <v>5.8842169999999999E-2</v>
+        <v>5.8794739999999998E-2</v>
       </c>
       <c r="I72" s="3">
-        <v>1.0708789999999999</v>
+        <v>1.7598579999999999</v>
       </c>
       <c r="J72" s="3">
-        <v>15.34928</v>
+        <v>8.9397319999999993</v>
       </c>
       <c r="K72" s="3">
-        <v>14.315020000000001</v>
+        <v>21.485620000000001</v>
       </c>
       <c r="L72" s="3">
-        <v>33.64761</v>
+        <v>49.575789999999998</v>
       </c>
       <c r="M72" s="3">
-        <v>10.06446</v>
+        <v>15.10777</v>
       </c>
       <c r="N72" s="3">
-        <v>0.35036210000000001</v>
+        <v>0.56491809999999998</v>
       </c>
       <c r="O72" s="3">
-        <v>996.35910000000001</v>
+        <v>996.33180000000004</v>
       </c>
       <c r="P72" s="3">
-        <v>46.910190710000002</v>
+        <v>46.910214699999997</v>
       </c>
       <c r="Q72" s="3">
-        <v>-91.05270453</v>
+        <v>-91.052755860000005</v>
       </c>
       <c r="R72" s="3"/>
     </row>
     <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>45131.482361111113</v>
+        <v>45131.482604166667</v>
       </c>
       <c r="B73" s="3">
-        <v>8.9473819999999993</v>
+        <v>12.91976</v>
       </c>
       <c r="C73" s="3">
-        <v>9.8787190000000002</v>
+        <v>11.8956</v>
       </c>
       <c r="D73" s="3">
-        <v>72.208579999999998</v>
+        <v>62.606580000000001</v>
       </c>
       <c r="E73" s="3">
-        <v>91.041920000000005</v>
+        <v>90.476380000000006</v>
       </c>
       <c r="F73" s="3">
-        <v>4.2310729999999998E-2</v>
+        <v>4.1689530000000002E-2</v>
       </c>
       <c r="G73" s="3">
-        <v>0.99926689999999996</v>
+        <v>0.99982579999999999</v>
       </c>
       <c r="H73" s="3">
-        <v>5.9177250000000001E-2</v>
+        <v>5.8811389999999998E-2</v>
       </c>
       <c r="I73" s="3">
-        <v>1.1185909999999999</v>
+        <v>1.777668</v>
       </c>
       <c r="J73" s="3">
-        <v>14.158569999999999</v>
+        <v>8.9217569999999995</v>
       </c>
       <c r="K73" s="3">
-        <v>15.01915</v>
+        <v>21.492629999999998</v>
       </c>
       <c r="L73" s="3">
-        <v>35.272210000000001</v>
+        <v>49.577829999999999</v>
       </c>
       <c r="M73" s="3">
-        <v>10.55951</v>
+        <v>15.11209</v>
       </c>
       <c r="N73" s="3">
-        <v>0.35067110000000001</v>
+        <v>0.56643460000000001</v>
       </c>
       <c r="O73" s="3">
-        <v>996.33370000000002</v>
+        <v>996.33040000000005</v>
       </c>
       <c r="P73" s="3">
-        <v>46.910190710000002</v>
+        <v>46.910214699999997</v>
       </c>
       <c r="Q73" s="3">
-        <v>-91.05270453</v>
+        <v>-91.052755860000005</v>
       </c>
       <c r="R73" s="3"/>
     </row>
     <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>45131.482372685183</v>
+        <v>45131.482615740744</v>
       </c>
       <c r="B74" s="3">
-        <v>8.9437960000000007</v>
+        <v>12.05762</v>
       </c>
       <c r="C74" s="3">
-        <v>9.9033479999999994</v>
+        <v>12.02383</v>
       </c>
       <c r="D74" s="3">
-        <v>72.069749999999999</v>
+        <v>62.913060000000002</v>
       </c>
       <c r="E74" s="3">
-        <v>91.058589999999995</v>
+        <v>90.959119999999999</v>
       </c>
       <c r="F74" s="3">
-        <v>4.2316380000000001E-2</v>
+        <v>4.1919369999999997E-2</v>
       </c>
       <c r="G74" s="3">
-        <v>0.99927679999999997</v>
+        <v>0.99982709999999997</v>
       </c>
       <c r="H74" s="3">
-        <v>5.9188089999999999E-2</v>
+        <v>5.9124429999999999E-2</v>
       </c>
       <c r="I74" s="3">
-        <v>1.123003</v>
+        <v>1.7631479999999999</v>
       </c>
       <c r="J74" s="3">
-        <v>14.073740000000001</v>
+        <v>8.8624580000000002</v>
       </c>
       <c r="K74" s="3">
-        <v>15.07197</v>
+        <v>21.482990000000001</v>
       </c>
       <c r="L74" s="3">
-        <v>35.394159999999999</v>
+        <v>49.556699999999999</v>
       </c>
       <c r="M74" s="3">
-        <v>10.59665</v>
+        <v>15.10478</v>
       </c>
       <c r="N74" s="3">
-        <v>0.35084270000000001</v>
+        <v>0.56642820000000005</v>
       </c>
       <c r="O74" s="3">
-        <v>996.33259999999996</v>
+        <v>996.33889999999997</v>
       </c>
       <c r="P74" s="3">
-        <v>46.910200629999999</v>
+        <v>46.910214699999997</v>
       </c>
       <c r="Q74" s="3">
-        <v>-91.052705110000005</v>
+        <v>-91.052755860000005</v>
       </c>
       <c r="R74" s="3"/>
     </row>
     <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>45131.48238425926</v>
+        <v>45131.482627314814</v>
       </c>
       <c r="B75" s="3">
-        <v>8.9402089999999994</v>
+        <v>12.073510000000001</v>
       </c>
       <c r="C75" s="3">
-        <v>9.9279770000000003</v>
+        <v>12.033670000000001</v>
       </c>
       <c r="D75" s="3">
-        <v>71.93092</v>
+        <v>62.926020000000001</v>
       </c>
       <c r="E75" s="3">
-        <v>91.075270000000003</v>
+        <v>90.986310000000003</v>
       </c>
       <c r="F75" s="3">
-        <v>4.2322039999999998E-2</v>
+        <v>4.1932079999999997E-2</v>
       </c>
       <c r="G75" s="3">
-        <v>0.99928669999999997</v>
+        <v>0.99982740000000003</v>
       </c>
       <c r="H75" s="3">
-        <v>5.9198929999999997E-2</v>
+        <v>5.9141489999999998E-2</v>
       </c>
       <c r="I75" s="3">
-        <v>1.1274150000000001</v>
+        <v>1.768537</v>
       </c>
       <c r="J75" s="3">
-        <v>13.988910000000001</v>
+        <v>8.8576779999999999</v>
       </c>
       <c r="K75" s="3">
-        <v>15.124790000000001</v>
+        <v>21.482869999999998</v>
       </c>
       <c r="L75" s="3">
-        <v>35.516109999999998</v>
+        <v>49.554830000000003</v>
       </c>
       <c r="M75" s="3">
-        <v>10.63378</v>
+        <v>15.104240000000001</v>
       </c>
       <c r="N75" s="3">
-        <v>0.3510142</v>
+        <v>0.56677880000000003</v>
       </c>
       <c r="O75" s="3">
-        <v>996.33140000000003</v>
+        <v>996.33910000000003</v>
       </c>
       <c r="P75" s="3">
-        <v>46.910200629999999</v>
+        <v>46.910214699999997</v>
       </c>
       <c r="Q75" s="3">
-        <v>-91.052705110000005</v>
+        <v>-91.052755860000005</v>
       </c>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>45131.482395833336</v>
+        <v>45131.482638888891</v>
       </c>
       <c r="B76" s="3">
-        <v>8.9366230000000009</v>
+        <v>12.08939</v>
       </c>
       <c r="C76" s="3">
-        <v>9.9526039999999991</v>
+        <v>12.043519999999999</v>
       </c>
       <c r="D76" s="3">
-        <v>71.792100000000005</v>
+        <v>62.938969999999998</v>
       </c>
       <c r="E76" s="3">
-        <v>91.091939999999994</v>
+        <v>91.013499999999993</v>
       </c>
       <c r="F76" s="3">
-        <v>4.2327700000000003E-2</v>
+        <v>4.1944790000000003E-2</v>
       </c>
       <c r="G76" s="3">
-        <v>0.99929659999999998</v>
+        <v>0.99982769999999999</v>
       </c>
       <c r="H76" s="3">
-        <v>5.9209770000000002E-2</v>
+        <v>5.9158540000000003E-2</v>
       </c>
       <c r="I76" s="3">
-        <v>1.1318269999999999</v>
+        <v>1.7739259999999999</v>
       </c>
       <c r="J76" s="3">
-        <v>13.90408</v>
+        <v>8.8529</v>
       </c>
       <c r="K76" s="3">
-        <v>15.17761</v>
+        <v>21.482749999999999</v>
       </c>
       <c r="L76" s="3">
-        <v>35.63805</v>
+        <v>49.552959999999999</v>
       </c>
       <c r="M76" s="3">
-        <v>10.670920000000001</v>
+        <v>15.10371</v>
       </c>
       <c r="N76" s="3">
-        <v>0.35118579999999999</v>
+        <v>0.56712929999999995</v>
       </c>
       <c r="O76" s="3">
-        <v>996.33019999999999</v>
+        <v>996.33910000000003</v>
       </c>
       <c r="P76" s="3">
-        <v>46.910200629999999</v>
+        <v>46.910214699999997</v>
       </c>
       <c r="Q76" s="3">
-        <v>-91.052705110000005</v>
+        <v>-91.052755860000005</v>
       </c>
       <c r="R76" s="3"/>
     </row>
     <row r="77" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>45131.482407407406</v>
+        <v>45131.48265046296</v>
       </c>
       <c r="B77" s="3">
-        <v>9.0707129999999996</v>
+        <v>13.242290000000001</v>
       </c>
       <c r="C77" s="3">
-        <v>10.175269999999999</v>
+        <v>12.3276</v>
       </c>
       <c r="D77" s="3">
-        <v>69.909530000000004</v>
+        <v>63.089550000000003</v>
       </c>
       <c r="E77" s="3">
-        <v>90.148240000000001</v>
+        <v>91.571299999999994</v>
       </c>
       <c r="F77" s="3">
-        <v>4.0754350000000002E-2</v>
+        <v>4.2206670000000002E-2</v>
       </c>
       <c r="G77" s="3">
-        <v>0.99946210000000002</v>
+        <v>0.9998319</v>
       </c>
       <c r="H77" s="3">
-        <v>5.718094E-2</v>
+        <v>5.9521350000000001E-2</v>
       </c>
       <c r="I77" s="3">
-        <v>1.1967589999999999</v>
+        <v>1.604303</v>
       </c>
       <c r="J77" s="3">
-        <v>13.242599999999999</v>
+        <v>8.8230050000000002</v>
       </c>
       <c r="K77" s="3">
-        <v>17.187809999999999</v>
+        <v>21.492139999999999</v>
       </c>
       <c r="L77" s="3">
-        <v>40.274839999999998</v>
+        <v>49.570990000000002</v>
       </c>
       <c r="M77" s="3">
-        <v>12.08423</v>
+        <v>15.110480000000001</v>
       </c>
       <c r="N77" s="3">
-        <v>0.36675960000000002</v>
+        <v>0.55930800000000003</v>
       </c>
       <c r="O77" s="3">
-        <v>996.33910000000003</v>
+        <v>996.33939999999996</v>
       </c>
       <c r="P77" s="3">
-        <v>46.910200629999999</v>
+        <v>46.910212690000002</v>
       </c>
       <c r="Q77" s="3">
-        <v>-91.052705110000005</v>
+        <v>-91.052769409999996</v>
       </c>
       <c r="R77" s="3"/>
     </row>
     <row r="78" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>45131.482418981483</v>
+        <v>45131.482662037037</v>
       </c>
       <c r="B78" s="3">
-        <v>9.0744000000000007</v>
+        <v>13.284750000000001</v>
       </c>
       <c r="C78" s="3">
-        <v>10.196070000000001</v>
+        <v>12.34553</v>
       </c>
       <c r="D78" s="3">
-        <v>69.773229999999998</v>
+        <v>63.104210000000002</v>
       </c>
       <c r="E78" s="3">
-        <v>90.113330000000005</v>
+        <v>91.611660000000001</v>
       </c>
       <c r="F78" s="3">
-        <v>4.068194E-2</v>
+        <v>4.222567E-2</v>
       </c>
       <c r="G78" s="3">
-        <v>0.99947240000000004</v>
+        <v>0.99983219999999995</v>
       </c>
       <c r="H78" s="3">
-        <v>5.7088640000000003E-2</v>
+        <v>5.9547580000000003E-2</v>
       </c>
       <c r="I78" s="3">
-        <v>1.2011149999999999</v>
+        <v>1.5950340000000001</v>
       </c>
       <c r="J78" s="3">
-        <v>13.18153</v>
+        <v>8.8199869999999994</v>
       </c>
       <c r="K78" s="3">
-        <v>17.303570000000001</v>
+        <v>21.49248</v>
       </c>
       <c r="L78" s="3">
-        <v>40.541870000000003</v>
+        <v>49.571510000000004</v>
       </c>
       <c r="M78" s="3">
-        <v>12.165620000000001</v>
+        <v>15.110720000000001</v>
       </c>
       <c r="N78" s="3">
-        <v>0.36753459999999999</v>
+        <v>0.55890019999999996</v>
       </c>
       <c r="O78" s="3">
-        <v>996.33889999999997</v>
+        <v>996.33960000000002</v>
       </c>
       <c r="P78" s="3">
-        <v>46.910200629999999</v>
+        <v>46.910212690000002</v>
       </c>
       <c r="Q78" s="3">
-        <v>-91.052705110000005</v>
+        <v>-91.052769409999996</v>
       </c>
       <c r="R78" s="3"/>
     </row>
     <row r="79" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>45131.482430555552</v>
+        <v>45131.482673611114</v>
       </c>
       <c r="B79" s="3">
-        <v>9.0780860000000008</v>
+        <v>13.327209999999999</v>
       </c>
       <c r="C79" s="3">
-        <v>10.21688</v>
+        <v>12.36345</v>
       </c>
       <c r="D79" s="3">
-        <v>69.636920000000003</v>
+        <v>63.118859999999998</v>
       </c>
       <c r="E79" s="3">
-        <v>90.078410000000005</v>
+        <v>91.652019999999993</v>
       </c>
       <c r="F79" s="3">
-        <v>4.0609520000000003E-2</v>
+        <v>4.224468E-2</v>
       </c>
       <c r="G79" s="3">
-        <v>0.9994826</v>
+        <v>0.99983250000000001</v>
       </c>
       <c r="H79" s="3">
-        <v>5.6996350000000001E-2</v>
+        <v>5.9573809999999998E-2</v>
       </c>
       <c r="I79" s="3">
-        <v>1.2054720000000001</v>
+        <v>1.5857650000000001</v>
       </c>
       <c r="J79" s="3">
-        <v>13.120469999999999</v>
+        <v>8.8169699999999995</v>
       </c>
       <c r="K79" s="3">
-        <v>17.419329999999999</v>
+        <v>21.492830000000001</v>
       </c>
       <c r="L79" s="3">
-        <v>40.808909999999997</v>
+        <v>49.572040000000001</v>
       </c>
       <c r="M79" s="3">
-        <v>12.24701</v>
+        <v>15.11096</v>
       </c>
       <c r="N79" s="3">
-        <v>0.36830960000000001</v>
+        <v>0.55849249999999995</v>
       </c>
       <c r="O79" s="3">
-        <v>996.33879999999999</v>
+        <v>996.33979999999997</v>
       </c>
       <c r="P79" s="3">
-        <v>46.910200629999999</v>
+        <v>46.910212690000002</v>
       </c>
       <c r="Q79" s="3">
-        <v>-91.052705110000005</v>
+        <v>-91.052769409999996</v>
       </c>
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>45131.482442129629</v>
+        <v>45131.482685185183</v>
       </c>
       <c r="B80" s="3">
-        <v>9.447794</v>
+        <v>10.67618</v>
       </c>
       <c r="C80" s="3">
-        <v>10.93127</v>
+        <v>12.45276</v>
       </c>
       <c r="D80" s="3">
-        <v>64.408289999999994</v>
+        <v>63.216610000000003</v>
       </c>
       <c r="E80" s="3">
-        <v>87.298429999999996</v>
+        <v>91.717749999999995</v>
       </c>
       <c r="F80" s="3">
-        <v>4.0231240000000001E-2</v>
+        <v>4.2271660000000003E-2</v>
       </c>
       <c r="G80" s="3">
-        <v>0.99961710000000004</v>
+        <v>0.99983569999999999</v>
       </c>
       <c r="H80" s="3">
-        <v>5.6588239999999998E-2</v>
+        <v>5.9616540000000003E-2</v>
       </c>
       <c r="I80" s="3">
-        <v>1.2392449999999999</v>
+        <v>1.697344</v>
       </c>
       <c r="J80" s="3">
-        <v>12.482279999999999</v>
+        <v>8.7894769999999998</v>
       </c>
       <c r="K80" s="3">
-        <v>18.331199999999999</v>
+        <v>21.482949999999999</v>
       </c>
       <c r="L80" s="3">
-        <v>42.912570000000002</v>
+        <v>49.553319999999999</v>
       </c>
       <c r="M80" s="3">
-        <v>12.888109999999999</v>
+        <v>15.10402</v>
       </c>
       <c r="N80" s="3">
-        <v>0.42372919999999997</v>
+        <v>0.58129070000000005</v>
       </c>
       <c r="O80" s="3">
-        <v>996.33950000000004</v>
+        <v>996.33119999999997</v>
       </c>
       <c r="P80" s="3">
-        <v>46.910200629999999</v>
+        <v>46.910212690000002</v>
       </c>
       <c r="Q80" s="3">
-        <v>-91.052705110000005</v>
+        <v>-91.052769409999996</v>
       </c>
       <c r="R80" s="3"/>
     </row>
     <row r="81" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>45131.482453703706</v>
+        <v>45131.48269675926</v>
       </c>
       <c r="B81" s="3">
-        <v>9.4692989999999995</v>
+        <v>10.56021</v>
       </c>
       <c r="C81" s="3">
-        <v>10.97287</v>
+        <v>12.463660000000001</v>
       </c>
       <c r="D81" s="3">
-        <v>64.099779999999996</v>
+        <v>63.22504</v>
       </c>
       <c r="E81" s="3">
-        <v>87.13776</v>
+        <v>91.733260000000001</v>
       </c>
       <c r="F81" s="3">
-        <v>4.0179960000000001E-2</v>
+        <v>4.2278740000000002E-2</v>
       </c>
       <c r="G81" s="3">
-        <v>0.99962759999999995</v>
+        <v>0.99983599999999995</v>
       </c>
       <c r="H81" s="3">
-        <v>5.6526270000000003E-2</v>
+        <v>5.9626619999999998E-2</v>
       </c>
       <c r="I81" s="3">
-        <v>1.2423979999999999</v>
+        <v>1.699692</v>
       </c>
       <c r="J81" s="3">
-        <v>12.43418</v>
+        <v>8.7873570000000001</v>
       </c>
       <c r="K81" s="3">
-        <v>18.420030000000001</v>
+        <v>21.48263</v>
       </c>
       <c r="L81" s="3">
-        <v>43.1175</v>
+        <v>49.552700000000002</v>
       </c>
       <c r="M81" s="3">
-        <v>12.950570000000001</v>
+        <v>15.10379</v>
       </c>
       <c r="N81" s="3">
-        <v>0.4268787</v>
+        <v>0.58234010000000003</v>
       </c>
       <c r="O81" s="3">
-        <v>996.33969999999999</v>
+        <v>996.33069999999998</v>
       </c>
       <c r="P81" s="3">
-        <v>46.910199679999998</v>
+        <v>46.910212690000002</v>
       </c>
       <c r="Q81" s="3">
-        <v>-91.052718440000007</v>
+        <v>-91.052769409999996</v>
       </c>
       <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>45131.482465277775</v>
-      </c>
-      <c r="B82" s="3">
-        <v>9.4908059999999992</v>
-      </c>
-      <c r="C82" s="3">
-        <v>11.01446</v>
-      </c>
-      <c r="D82" s="3">
-        <v>63.791260000000001</v>
-      </c>
-      <c r="E82" s="3">
-        <v>86.977080000000001</v>
-      </c>
-      <c r="F82" s="3">
-        <v>4.012868E-2</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0.99963809999999997</v>
-      </c>
-      <c r="H82" s="3">
-        <v>5.6464300000000002E-2</v>
-      </c>
-      <c r="I82" s="3">
-        <v>1.2455510000000001</v>
-      </c>
-      <c r="J82" s="3">
-        <v>12.386089999999999</v>
-      </c>
-      <c r="K82" s="3">
-        <v>18.508870000000002</v>
-      </c>
-      <c r="L82" s="3">
-        <v>43.32244</v>
-      </c>
-      <c r="M82" s="3">
-        <v>13.013030000000001</v>
-      </c>
-      <c r="N82" s="3">
-        <v>0.43002810000000002</v>
-      </c>
-      <c r="O82" s="3">
-        <v>996.33979999999997</v>
-      </c>
-      <c r="P82" s="3">
-        <v>46.910205470000001</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>-91.052729009999993</v>
-      </c>
-      <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>45131.482476851852</v>
-      </c>
-      <c r="B83" s="3">
-        <v>9.4703140000000001</v>
-      </c>
-      <c r="C83" s="3">
-        <v>11.182589999999999</v>
-      </c>
-      <c r="D83" s="3">
-        <v>63.018239999999999</v>
-      </c>
-      <c r="E83" s="3">
-        <v>87.704099999999997</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4.0442350000000002E-2</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0.99973639999999997</v>
-      </c>
-      <c r="H83" s="3">
-        <v>5.7461749999999999E-2</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1.217233</v>
-      </c>
-      <c r="J83" s="3">
-        <v>10.405749999999999</v>
-      </c>
-      <c r="K83" s="3">
-        <v>19.820509999999999</v>
-      </c>
-      <c r="L83" s="3">
-        <v>46.347740000000002</v>
-      </c>
-      <c r="M83" s="3">
-        <v>13.9352</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0.49292649999999999</v>
-      </c>
-      <c r="O83" s="3">
-        <v>996.32230000000004</v>
-      </c>
-      <c r="P83" s="3">
-        <v>46.910207399999997</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>-91.052744630000007</v>
-      </c>
-      <c r="R83" s="3"/>
-    </row>
-    <row r="84" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>45131.482488425929</v>
-      </c>
-      <c r="B84" s="3">
-        <v>9.4771739999999998</v>
-      </c>
-      <c r="C84" s="3">
-        <v>11.206799999999999</v>
-      </c>
-      <c r="D84" s="3">
-        <v>62.865029999999997</v>
-      </c>
-      <c r="E84" s="3">
-        <v>87.681700000000006</v>
-      </c>
-      <c r="F84" s="3">
-        <v>4.044996E-2</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0.99974439999999998</v>
-      </c>
-      <c r="H84" s="3">
-        <v>5.7503690000000003E-2</v>
-      </c>
-      <c r="I84" s="3">
-        <v>1.2165459999999999</v>
-      </c>
-      <c r="J84" s="3">
-        <v>10.289759999999999</v>
-      </c>
-      <c r="K84" s="3">
-        <v>19.908249999999999</v>
-      </c>
-      <c r="L84" s="3">
-        <v>46.550130000000003</v>
-      </c>
-      <c r="M84" s="3">
-        <v>13.99689</v>
-      </c>
-      <c r="N84" s="3">
-        <v>0.4973455</v>
-      </c>
-      <c r="O84" s="3">
-        <v>996.32140000000004</v>
-      </c>
-      <c r="P84" s="3">
-        <v>46.910207399999997</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>-91.052744630000007</v>
-      </c>
-      <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>45131.482499999998</v>
-      </c>
-      <c r="B85" s="3">
-        <v>9.4840339999999994</v>
-      </c>
-      <c r="C85" s="3">
-        <v>11.231009999999999</v>
-      </c>
-      <c r="D85" s="3">
-        <v>62.71181</v>
-      </c>
-      <c r="E85" s="3">
-        <v>87.659300000000002</v>
-      </c>
-      <c r="F85" s="3">
-        <v>4.0457569999999998E-2</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0.99975250000000004</v>
-      </c>
-      <c r="H85" s="3">
-        <v>5.7545640000000002E-2</v>
-      </c>
-      <c r="I85" s="3">
-        <v>1.2158599999999999</v>
-      </c>
-      <c r="J85" s="3">
-        <v>10.173769999999999</v>
-      </c>
-      <c r="K85" s="3">
-        <v>19.995989999999999</v>
-      </c>
-      <c r="L85" s="3">
-        <v>46.752519999999997</v>
-      </c>
-      <c r="M85" s="3">
-        <v>14.058579999999999</v>
-      </c>
-      <c r="N85" s="3">
-        <v>0.50176449999999995</v>
-      </c>
-      <c r="O85" s="3">
-        <v>996.32050000000004</v>
-      </c>
-      <c r="P85" s="3">
-        <v>46.910207399999997</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>-91.052744630000007</v>
-      </c>
-      <c r="R85" s="3"/>
-    </row>
-    <row r="86" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>45131.482511574075</v>
-      </c>
-      <c r="B86" s="3">
-        <v>9.3572930000000003</v>
-      </c>
-      <c r="C86" s="3">
-        <v>11.39583</v>
-      </c>
-      <c r="D86" s="3">
-        <v>62.938090000000003</v>
-      </c>
-      <c r="E86" s="3">
-        <v>88.94444</v>
-      </c>
-      <c r="F86" s="3">
-        <v>4.1027319999999999E-2</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0.99976339999999997</v>
-      </c>
-      <c r="H86" s="3">
-        <v>5.7871810000000003E-2</v>
-      </c>
-      <c r="I86" s="3">
-        <v>1.3008869999999999</v>
-      </c>
-      <c r="J86" s="3">
-        <v>9.8653720000000007</v>
-      </c>
-      <c r="K86" s="3">
-        <v>20.961179999999999</v>
-      </c>
-      <c r="L86" s="3">
-        <v>48.978900000000003</v>
-      </c>
-      <c r="M86" s="3">
-        <v>14.73718</v>
-      </c>
-      <c r="N86" s="3">
-        <v>0.50977240000000001</v>
-      </c>
-      <c r="O86" s="3">
-        <v>996.37249999999995</v>
-      </c>
-      <c r="P86" s="3">
-        <v>46.910214699999997</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>-91.052755860000005</v>
-      </c>
-      <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <v>45131.482523148145</v>
-      </c>
-      <c r="B87" s="3">
-        <v>9.3504389999999997</v>
-      </c>
-      <c r="C87" s="3">
-        <v>11.408440000000001</v>
-      </c>
-      <c r="D87" s="3">
-        <v>62.930419999999998</v>
-      </c>
-      <c r="E87" s="3">
-        <v>89.025549999999996</v>
-      </c>
-      <c r="F87" s="3">
-        <v>4.1063269999999999E-2</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0.99976620000000005</v>
-      </c>
-      <c r="H87" s="3">
-        <v>5.79094E-2</v>
-      </c>
-      <c r="I87" s="3">
-        <v>1.30477</v>
-      </c>
-      <c r="J87" s="3">
-        <v>9.8066800000000001</v>
-      </c>
-      <c r="K87" s="3">
-        <v>21.040500000000002</v>
-      </c>
-      <c r="L87" s="3">
-        <v>49.16187</v>
-      </c>
-      <c r="M87" s="3">
-        <v>14.79294</v>
-      </c>
-      <c r="N87" s="3">
-        <v>0.51155879999999998</v>
-      </c>
-      <c r="O87" s="3">
-        <v>996.37480000000005</v>
-      </c>
-      <c r="P87" s="3">
-        <v>46.910214699999997</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>-91.052755860000005</v>
-      </c>
-      <c r="R87" s="3"/>
-    </row>
-    <row r="88" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>45131.482534722221</v>
-      </c>
-      <c r="B88" s="3">
-        <v>9.3435839999999999</v>
-      </c>
-      <c r="C88" s="3">
-        <v>11.421060000000001</v>
-      </c>
-      <c r="D88" s="3">
-        <v>62.922750000000001</v>
-      </c>
-      <c r="E88" s="3">
-        <v>89.106660000000005</v>
-      </c>
-      <c r="F88" s="3">
-        <v>4.1099209999999997E-2</v>
-      </c>
-      <c r="G88" s="3">
-        <v>0.99976889999999996</v>
-      </c>
-      <c r="H88" s="3">
-        <v>5.7946989999999997E-2</v>
-      </c>
-      <c r="I88" s="3">
-        <v>1.308654</v>
-      </c>
-      <c r="J88" s="3">
-        <v>9.7479879999999994</v>
-      </c>
-      <c r="K88" s="3">
-        <v>21.119820000000001</v>
-      </c>
-      <c r="L88" s="3">
-        <v>49.344830000000002</v>
-      </c>
-      <c r="M88" s="3">
-        <v>14.848710000000001</v>
-      </c>
-      <c r="N88" s="3">
-        <v>0.5133453</v>
-      </c>
-      <c r="O88" s="3">
-        <v>996.37720000000002</v>
-      </c>
-      <c r="P88" s="3">
-        <v>46.910214699999997</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>-91.052755860000005</v>
-      </c>
-      <c r="R88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <v>45131.482546296298</v>
-      </c>
-      <c r="B89" s="3">
-        <v>9.7163280000000007</v>
-      </c>
-      <c r="C89" s="3">
-        <v>11.69679</v>
-      </c>
-      <c r="D89" s="3">
-        <v>62.792079999999999</v>
-      </c>
-      <c r="E89" s="3">
-        <v>90.205129999999997</v>
-      </c>
-      <c r="F89" s="3">
-        <v>4.1579360000000003E-2</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0.99980990000000003</v>
-      </c>
-      <c r="H89" s="3">
-        <v>5.8677220000000002E-2</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1.44156</v>
-      </c>
-      <c r="J89" s="3">
-        <v>9.1069370000000003</v>
-      </c>
-      <c r="K89" s="3">
-        <v>21.400870000000001</v>
-      </c>
-      <c r="L89" s="3">
-        <v>49.51699</v>
-      </c>
-      <c r="M89" s="3">
-        <v>15.06626</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0.54387810000000003</v>
-      </c>
-      <c r="O89" s="3">
-        <v>996.35199999999998</v>
-      </c>
-      <c r="P89" s="3">
-        <v>46.910214699999997</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-91.052755860000005</v>
-      </c>
-      <c r="R89" s="3"/>
-    </row>
-    <row r="90" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
-        <v>45131.482557870368</v>
-      </c>
-      <c r="B90" s="3">
-        <v>9.7331679999999992</v>
-      </c>
-      <c r="C90" s="3">
-        <v>11.71508</v>
-      </c>
-      <c r="D90" s="3">
-        <v>62.788510000000002</v>
-      </c>
-      <c r="E90" s="3">
-        <v>90.290139999999994</v>
-      </c>
-      <c r="F90" s="3">
-        <v>4.1616920000000002E-2</v>
-      </c>
-      <c r="G90" s="3">
-        <v>0.99981240000000005</v>
-      </c>
-      <c r="H90" s="3">
-        <v>5.8722719999999999E-2</v>
-      </c>
-      <c r="I90" s="3">
-        <v>1.450377</v>
-      </c>
-      <c r="J90" s="3">
-        <v>9.0659240000000008</v>
-      </c>
-      <c r="K90" s="3">
-        <v>21.437280000000001</v>
-      </c>
-      <c r="L90" s="3">
-        <v>49.576050000000002</v>
-      </c>
-      <c r="M90" s="3">
-        <v>15.09291</v>
-      </c>
-      <c r="N90" s="3">
-        <v>0.54568380000000005</v>
-      </c>
-      <c r="O90" s="3">
-        <v>996.35180000000003</v>
-      </c>
-      <c r="P90" s="3">
-        <v>46.910214699999997</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>-91.052755860000005</v>
-      </c>
-      <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
-        <v>45131.482569444444</v>
-      </c>
-      <c r="B91" s="3">
-        <v>9.7500079999999993</v>
-      </c>
-      <c r="C91" s="3">
-        <v>11.733359999999999</v>
-      </c>
-      <c r="D91" s="3">
-        <v>62.784930000000003</v>
-      </c>
-      <c r="E91" s="3">
-        <v>90.375140000000002</v>
-      </c>
-      <c r="F91" s="3">
-        <v>4.1654490000000002E-2</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0.9998148</v>
-      </c>
-      <c r="H91" s="3">
-        <v>5.8768229999999998E-2</v>
-      </c>
-      <c r="I91" s="3">
-        <v>1.4591940000000001</v>
-      </c>
-      <c r="J91" s="3">
-        <v>9.0249089999999992</v>
-      </c>
-      <c r="K91" s="3">
-        <v>21.473690000000001</v>
-      </c>
-      <c r="L91" s="3">
-        <v>49.635120000000001</v>
-      </c>
-      <c r="M91" s="3">
-        <v>15.11955</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0.54748949999999996</v>
-      </c>
-      <c r="O91" s="3">
-        <v>996.35159999999996</v>
-      </c>
-      <c r="P91" s="3">
-        <v>46.910214699999997</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-91.052755860000005</v>
-      </c>
-      <c r="R91" s="3"/>
-    </row>
-    <row r="92" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <v>45131.482581018521</v>
-      </c>
-      <c r="B92" s="3">
-        <v>12.602930000000001</v>
-      </c>
-      <c r="C92" s="3">
-        <v>11.869160000000001</v>
-      </c>
-      <c r="D92" s="3">
-        <v>62.628909999999998</v>
-      </c>
-      <c r="E92" s="3">
-        <v>90.422629999999998</v>
-      </c>
-      <c r="F92" s="3">
-        <v>4.1666910000000001E-2</v>
-      </c>
-      <c r="G92" s="3">
-        <v>0.99982320000000002</v>
-      </c>
-      <c r="H92" s="3">
-        <v>5.87781E-2</v>
-      </c>
-      <c r="I92" s="3">
-        <v>1.742049</v>
-      </c>
-      <c r="J92" s="3">
-        <v>8.9577059999999999</v>
-      </c>
-      <c r="K92" s="3">
-        <v>21.47861</v>
-      </c>
-      <c r="L92" s="3">
-        <v>49.573749999999997</v>
-      </c>
-      <c r="M92" s="3">
-        <v>15.103440000000001</v>
-      </c>
-      <c r="N92" s="3">
-        <v>0.56340159999999995</v>
-      </c>
-      <c r="O92" s="3">
-        <v>996.33339999999998</v>
-      </c>
-      <c r="P92" s="3">
-        <v>46.910214699999997</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>-91.052755860000005</v>
-      </c>
-      <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <v>45131.482592592591</v>
-      </c>
-      <c r="B93" s="3">
-        <v>12.76135</v>
-      </c>
-      <c r="C93" s="3">
-        <v>11.882379999999999</v>
-      </c>
-      <c r="D93" s="3">
-        <v>62.617739999999998</v>
-      </c>
-      <c r="E93" s="3">
-        <v>90.4495</v>
-      </c>
-      <c r="F93" s="3">
-        <v>4.1678220000000002E-2</v>
-      </c>
-      <c r="G93" s="3">
-        <v>0.9998245</v>
-      </c>
-      <c r="H93" s="3">
-        <v>5.8794739999999998E-2</v>
-      </c>
-      <c r="I93" s="3">
-        <v>1.7598579999999999</v>
-      </c>
-      <c r="J93" s="3">
-        <v>8.9397319999999993</v>
-      </c>
-      <c r="K93" s="3">
-        <v>21.485620000000001</v>
-      </c>
-      <c r="L93" s="3">
-        <v>49.575789999999998</v>
-      </c>
-      <c r="M93" s="3">
-        <v>15.10777</v>
-      </c>
-      <c r="N93" s="3">
-        <v>0.56491809999999998</v>
-      </c>
-      <c r="O93" s="3">
-        <v>996.33180000000004</v>
-      </c>
-      <c r="P93" s="3">
-        <v>46.910214699999997</v>
-      </c>
-      <c r="Q93" s="3">
-        <v>-91.052755860000005</v>
-      </c>
-      <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <v>45131.482604166667</v>
-      </c>
-      <c r="B94" s="3">
-        <v>12.91976</v>
-      </c>
-      <c r="C94" s="3">
-        <v>11.8956</v>
-      </c>
-      <c r="D94" s="3">
-        <v>62.606580000000001</v>
-      </c>
-      <c r="E94" s="3">
-        <v>90.476380000000006</v>
-      </c>
-      <c r="F94" s="3">
-        <v>4.1689530000000002E-2</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0.99982579999999999</v>
-      </c>
-      <c r="H94" s="3">
-        <v>5.8811389999999998E-2</v>
-      </c>
-      <c r="I94" s="3">
-        <v>1.777668</v>
-      </c>
-      <c r="J94" s="3">
-        <v>8.9217569999999995</v>
-      </c>
-      <c r="K94" s="3">
-        <v>21.492629999999998</v>
-      </c>
-      <c r="L94" s="3">
-        <v>49.577829999999999</v>
-      </c>
-      <c r="M94" s="3">
-        <v>15.11209</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0.56643460000000001</v>
-      </c>
-      <c r="O94" s="3">
-        <v>996.33040000000005</v>
-      </c>
-      <c r="P94" s="3">
-        <v>46.910214699999997</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-91.052755860000005</v>
-      </c>
-      <c r="R94" s="3"/>
-    </row>
-    <row r="95" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
-        <v>45131.482615740744</v>
-      </c>
-      <c r="B95" s="3">
-        <v>12.05762</v>
-      </c>
-      <c r="C95" s="3">
-        <v>12.02383</v>
-      </c>
-      <c r="D95" s="3">
-        <v>62.913060000000002</v>
-      </c>
-      <c r="E95" s="3">
-        <v>90.959119999999999</v>
-      </c>
-      <c r="F95" s="3">
-        <v>4.1919369999999997E-2</v>
-      </c>
-      <c r="G95" s="3">
-        <v>0.99982709999999997</v>
-      </c>
-      <c r="H95" s="3">
-        <v>5.9124429999999999E-2</v>
-      </c>
-      <c r="I95" s="3">
-        <v>1.7631479999999999</v>
-      </c>
-      <c r="J95" s="3">
-        <v>8.8624580000000002</v>
-      </c>
-      <c r="K95" s="3">
-        <v>21.482990000000001</v>
-      </c>
-      <c r="L95" s="3">
-        <v>49.556699999999999</v>
-      </c>
-      <c r="M95" s="3">
-        <v>15.10478</v>
-      </c>
-      <c r="N95" s="3">
-        <v>0.56642820000000005</v>
-      </c>
-      <c r="O95" s="3">
-        <v>996.33889999999997</v>
-      </c>
-      <c r="P95" s="3">
-        <v>46.910214699999997</v>
-      </c>
-      <c r="Q95" s="3">
-        <v>-91.052755860000005</v>
-      </c>
-      <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
-        <v>45131.482627314814</v>
-      </c>
-      <c r="B96" s="3">
-        <v>12.073510000000001</v>
-      </c>
-      <c r="C96" s="3">
-        <v>12.033670000000001</v>
-      </c>
-      <c r="D96" s="3">
-        <v>62.926020000000001</v>
-      </c>
-      <c r="E96" s="3">
-        <v>90.986310000000003</v>
-      </c>
-      <c r="F96" s="3">
-        <v>4.1932079999999997E-2</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0.99982740000000003</v>
-      </c>
-      <c r="H96" s="3">
-        <v>5.9141489999999998E-2</v>
-      </c>
-      <c r="I96" s="3">
-        <v>1.768537</v>
-      </c>
-      <c r="J96" s="3">
-        <v>8.8576779999999999</v>
-      </c>
-      <c r="K96" s="3">
-        <v>21.482869999999998</v>
-      </c>
-      <c r="L96" s="3">
-        <v>49.554830000000003</v>
-      </c>
-      <c r="M96" s="3">
-        <v>15.104240000000001</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0.56677880000000003</v>
-      </c>
-      <c r="O96" s="3">
-        <v>996.33910000000003</v>
-      </c>
-      <c r="P96" s="3">
-        <v>46.910214699999997</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-91.052755860000005</v>
-      </c>
-      <c r="R96" s="3"/>
-    </row>
-    <row r="97" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
-        <v>45131.482638888891</v>
-      </c>
-      <c r="B97" s="3">
-        <v>12.08939</v>
-      </c>
-      <c r="C97" s="3">
-        <v>12.043519999999999</v>
-      </c>
-      <c r="D97" s="3">
-        <v>62.938969999999998</v>
-      </c>
-      <c r="E97" s="3">
-        <v>91.013499999999993</v>
-      </c>
-      <c r="F97" s="3">
-        <v>4.1944790000000003E-2</v>
-      </c>
-      <c r="G97" s="3">
-        <v>0.99982769999999999</v>
-      </c>
-      <c r="H97" s="3">
-        <v>5.9158540000000003E-2</v>
-      </c>
-      <c r="I97" s="3">
-        <v>1.7739259999999999</v>
-      </c>
-      <c r="J97" s="3">
-        <v>8.8529</v>
-      </c>
-      <c r="K97" s="3">
-        <v>21.482749999999999</v>
-      </c>
-      <c r="L97" s="3">
-        <v>49.552959999999999</v>
-      </c>
-      <c r="M97" s="3">
-        <v>15.10371</v>
-      </c>
-      <c r="N97" s="3">
-        <v>0.56712929999999995</v>
-      </c>
-      <c r="O97" s="3">
-        <v>996.33910000000003</v>
-      </c>
-      <c r="P97" s="3">
-        <v>46.910214699999997</v>
-      </c>
-      <c r="Q97" s="3">
-        <v>-91.052755860000005</v>
-      </c>
-      <c r="R97" s="3"/>
-    </row>
-    <row r="98" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
-        <v>45131.48265046296</v>
-      </c>
-      <c r="B98" s="3">
-        <v>13.242290000000001</v>
-      </c>
-      <c r="C98" s="3">
-        <v>12.3276</v>
-      </c>
-      <c r="D98" s="3">
-        <v>63.089550000000003</v>
-      </c>
-      <c r="E98" s="3">
-        <v>91.571299999999994</v>
-      </c>
-      <c r="F98" s="3">
-        <v>4.2206670000000002E-2</v>
-      </c>
-      <c r="G98" s="3">
-        <v>0.9998319</v>
-      </c>
-      <c r="H98" s="3">
-        <v>5.9521350000000001E-2</v>
-      </c>
-      <c r="I98" s="3">
-        <v>1.604303</v>
-      </c>
-      <c r="J98" s="3">
-        <v>8.8230050000000002</v>
-      </c>
-      <c r="K98" s="3">
-        <v>21.492139999999999</v>
-      </c>
-      <c r="L98" s="3">
-        <v>49.570990000000002</v>
-      </c>
-      <c r="M98" s="3">
-        <v>15.110480000000001</v>
-      </c>
-      <c r="N98" s="3">
-        <v>0.55930800000000003</v>
-      </c>
-      <c r="O98" s="3">
-        <v>996.33939999999996</v>
-      </c>
-      <c r="P98" s="3">
-        <v>46.910212690000002</v>
-      </c>
-      <c r="Q98" s="3">
-        <v>-91.052769409999996</v>
-      </c>
-      <c r="R98" s="3"/>
-    </row>
-    <row r="99" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
-        <v>45131.482662037037</v>
-      </c>
-      <c r="B99" s="3">
-        <v>13.284750000000001</v>
-      </c>
-      <c r="C99" s="3">
-        <v>12.34553</v>
-      </c>
-      <c r="D99" s="3">
-        <v>63.104210000000002</v>
-      </c>
-      <c r="E99" s="3">
-        <v>91.611660000000001</v>
-      </c>
-      <c r="F99" s="3">
-        <v>4.222567E-2</v>
-      </c>
-      <c r="G99" s="3">
-        <v>0.99983219999999995</v>
-      </c>
-      <c r="H99" s="3">
-        <v>5.9547580000000003E-2</v>
-      </c>
-      <c r="I99" s="3">
-        <v>1.5950340000000001</v>
-      </c>
-      <c r="J99" s="3">
-        <v>8.8199869999999994</v>
-      </c>
-      <c r="K99" s="3">
-        <v>21.49248</v>
-      </c>
-      <c r="L99" s="3">
-        <v>49.571510000000004</v>
-      </c>
-      <c r="M99" s="3">
-        <v>15.110720000000001</v>
-      </c>
-      <c r="N99" s="3">
-        <v>0.55890019999999996</v>
-      </c>
-      <c r="O99" s="3">
-        <v>996.33960000000002</v>
-      </c>
-      <c r="P99" s="3">
-        <v>46.910212690000002</v>
-      </c>
-      <c r="Q99" s="3">
-        <v>-91.052769409999996</v>
-      </c>
-      <c r="R99" s="3"/>
-    </row>
-    <row r="100" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
-        <v>45131.482673611114</v>
-      </c>
-      <c r="B100" s="3">
-        <v>13.327209999999999</v>
-      </c>
-      <c r="C100" s="3">
-        <v>12.36345</v>
-      </c>
-      <c r="D100" s="3">
-        <v>63.118859999999998</v>
-      </c>
-      <c r="E100" s="3">
-        <v>91.652019999999993</v>
-      </c>
-      <c r="F100" s="3">
-        <v>4.224468E-2</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0.99983250000000001</v>
-      </c>
-      <c r="H100" s="3">
-        <v>5.9573809999999998E-2</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1.5857650000000001</v>
-      </c>
-      <c r="J100" s="3">
-        <v>8.8169699999999995</v>
-      </c>
-      <c r="K100" s="3">
-        <v>21.492830000000001</v>
-      </c>
-      <c r="L100" s="3">
-        <v>49.572040000000001</v>
-      </c>
-      <c r="M100" s="3">
-        <v>15.11096</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0.55849249999999995</v>
-      </c>
-      <c r="O100" s="3">
-        <v>996.33979999999997</v>
-      </c>
-      <c r="P100" s="3">
-        <v>46.910212690000002</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-91.052769409999996</v>
-      </c>
-      <c r="R100" s="3"/>
-    </row>
-    <row r="101" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
-        <v>45131.482685185183</v>
-      </c>
-      <c r="B101" s="3">
-        <v>10.67618</v>
-      </c>
-      <c r="C101" s="3">
-        <v>12.45276</v>
-      </c>
-      <c r="D101" s="3">
-        <v>63.216610000000003</v>
-      </c>
-      <c r="E101" s="3">
-        <v>91.717749999999995</v>
-      </c>
-      <c r="F101" s="3">
-        <v>4.2271660000000003E-2</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0.99983569999999999</v>
-      </c>
-      <c r="H101" s="3">
-        <v>5.9616540000000003E-2</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1.697344</v>
-      </c>
-      <c r="J101" s="3">
-        <v>8.7894769999999998</v>
-      </c>
-      <c r="K101" s="3">
-        <v>21.482949999999999</v>
-      </c>
-      <c r="L101" s="3">
-        <v>49.553319999999999</v>
-      </c>
-      <c r="M101" s="3">
-        <v>15.10402</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0.58129070000000005</v>
-      </c>
-      <c r="O101" s="3">
-        <v>996.33119999999997</v>
-      </c>
-      <c r="P101" s="3">
-        <v>46.910212690000002</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-91.052769409999996</v>
-      </c>
-      <c r="R101" s="3"/>
-    </row>
-    <row r="102" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <v>45131.48269675926</v>
-      </c>
-      <c r="B102" s="3">
-        <v>10.56021</v>
-      </c>
-      <c r="C102" s="3">
-        <v>12.463660000000001</v>
-      </c>
-      <c r="D102" s="3">
-        <v>63.22504</v>
-      </c>
-      <c r="E102" s="3">
-        <v>91.733260000000001</v>
-      </c>
-      <c r="F102" s="3">
-        <v>4.2278740000000002E-2</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0.99983599999999995</v>
-      </c>
-      <c r="H102" s="3">
-        <v>5.9626619999999998E-2</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1.699692</v>
-      </c>
-      <c r="J102" s="3">
-        <v>8.7873570000000001</v>
-      </c>
-      <c r="K102" s="3">
-        <v>21.48263</v>
-      </c>
-      <c r="L102" s="3">
-        <v>49.552700000000002</v>
-      </c>
-      <c r="M102" s="3">
-        <v>15.10379</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0.58234010000000003</v>
-      </c>
-      <c r="O102" s="3">
-        <v>996.33069999999998</v>
-      </c>
-      <c r="P102" s="3">
-        <v>46.910212690000002</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-91.052769409999996</v>
-      </c>
-      <c r="R102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
